--- a/wit/web_region_bubble_MENA/travel_market_summary_old.xlsx
+++ b/wit/web_region_bubble_MENA/travel_market_summary_old.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bubble/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bubble_MENA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_61905BD133772EF7847BF89C4A7BC93DD8FADAC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA3C6053-2D43-7C47-AA7C-39BF7022433E}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_61905BD133772EF7847BF89C4A7BC93DD8FADAC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEF3D453-6B3A-1E4E-AB83-DB7975914299}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60704,12 +60704,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
@@ -60742,7 +60742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>2005</v>
       </c>
@@ -60762,7 +60762,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2005</v>
       </c>
@@ -60782,7 +60782,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
@@ -60802,7 +60802,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2005</v>
       </c>
@@ -60822,7 +60822,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -60842,7 +60842,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>2005</v>
       </c>
@@ -60862,7 +60862,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>2005</v>
       </c>
@@ -60882,7 +60882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2005</v>
       </c>
@@ -60902,7 +60902,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2005</v>
       </c>
@@ -60922,7 +60922,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2005</v>
       </c>
@@ -60942,7 +60942,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>2005</v>
       </c>
@@ -60962,7 +60962,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>2005</v>
       </c>
@@ -60982,7 +60982,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>2005</v>
       </c>
@@ -61002,7 +61002,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>2005</v>
       </c>
@@ -61022,7 +61022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>2005</v>
       </c>
@@ -61042,7 +61042,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>2005</v>
       </c>
@@ -61062,7 +61062,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>2005</v>
       </c>
@@ -61082,7 +61082,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2005</v>
       </c>
@@ -61102,7 +61102,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>2005</v>
       </c>
@@ -61122,7 +61122,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>2005</v>
       </c>
@@ -61142,7 +61142,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>2005</v>
       </c>
@@ -61162,7 +61162,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>2005</v>
       </c>
@@ -61182,7 +61182,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>2005</v>
       </c>
@@ -61202,7 +61202,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>2005</v>
       </c>
@@ -61222,7 +61222,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>2005</v>
       </c>
@@ -61242,7 +61242,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>2005</v>
       </c>
@@ -61262,7 +61262,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>2005</v>
       </c>
@@ -61282,7 +61282,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>2005</v>
       </c>
@@ -61302,7 +61302,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>2005</v>
       </c>
@@ -61322,7 +61322,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>2005</v>
       </c>
@@ -61342,7 +61342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2005</v>
       </c>
@@ -61362,7 +61362,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>2005</v>
       </c>
@@ -61382,7 +61382,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>2005</v>
       </c>
@@ -61402,7 +61402,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>2005</v>
       </c>
@@ -61422,7 +61422,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>2005</v>
       </c>
@@ -61442,7 +61442,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>2005</v>
       </c>
@@ -61462,7 +61462,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>2005</v>
       </c>
@@ -61482,7 +61482,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>2005</v>
       </c>
@@ -61502,7 +61502,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>2005</v>
       </c>
@@ -61522,7 +61522,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>2005</v>
       </c>
@@ -61542,7 +61542,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>2006</v>
       </c>
@@ -61562,7 +61562,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>2006</v>
       </c>
@@ -61582,7 +61582,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>2006</v>
       </c>
@@ -61602,7 +61602,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>2006</v>
       </c>
@@ -61622,7 +61622,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>2006</v>
       </c>
@@ -61642,7 +61642,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>2006</v>
       </c>
@@ -61662,7 +61662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>2006</v>
       </c>
@@ -61682,7 +61682,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>2006</v>
       </c>
@@ -61702,7 +61702,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>2006</v>
       </c>
@@ -61722,7 +61722,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>2006</v>
       </c>
@@ -61742,7 +61742,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>2006</v>
       </c>
@@ -61762,7 +61762,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>2006</v>
       </c>
@@ -61782,7 +61782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>2006</v>
       </c>
@@ -61802,7 +61802,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>2006</v>
       </c>
@@ -61822,7 +61822,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>2006</v>
       </c>
@@ -61842,7 +61842,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>2006</v>
       </c>
@@ -61862,7 +61862,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>2006</v>
       </c>
@@ -61882,7 +61882,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>2006</v>
       </c>
@@ -61902,7 +61902,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>2006</v>
       </c>
@@ -61922,7 +61922,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>2006</v>
       </c>
@@ -61942,7 +61942,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>2006</v>
       </c>
@@ -61962,7 +61962,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>2006</v>
       </c>
@@ -61982,7 +61982,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>2006</v>
       </c>
@@ -62002,7 +62002,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>2006</v>
       </c>
@@ -62022,7 +62022,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>2006</v>
       </c>
@@ -62042,7 +62042,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>2006</v>
       </c>
@@ -62062,7 +62062,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>2006</v>
       </c>
@@ -62082,7 +62082,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>2006</v>
       </c>
@@ -62102,7 +62102,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>2006</v>
       </c>
@@ -62122,7 +62122,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>2006</v>
       </c>
@@ -62142,7 +62142,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>2006</v>
       </c>
@@ -62162,7 +62162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>2006</v>
       </c>
@@ -62182,7 +62182,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>2006</v>
       </c>
@@ -62202,7 +62202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>2006</v>
       </c>
@@ -62222,7 +62222,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>2006</v>
       </c>
@@ -62242,7 +62242,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>2006</v>
       </c>
@@ -62262,7 +62262,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>2006</v>
       </c>
@@ -62282,7 +62282,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>2006</v>
       </c>
@@ -62302,7 +62302,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>2006</v>
       </c>
@@ -62322,7 +62322,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>2006</v>
       </c>
@@ -62342,7 +62342,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>2007</v>
       </c>
@@ -62362,7 +62362,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>2007</v>
       </c>
@@ -62382,7 +62382,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>2007</v>
       </c>
@@ -62402,7 +62402,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>2007</v>
       </c>
@@ -62422,7 +62422,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>2007</v>
       </c>
@@ -62442,7 +62442,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>2007</v>
       </c>
@@ -62462,7 +62462,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>2007</v>
       </c>
@@ -62482,7 +62482,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>2007</v>
       </c>
@@ -62502,7 +62502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>2007</v>
       </c>
@@ -62522,7 +62522,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>2007</v>
       </c>
@@ -62542,7 +62542,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>2007</v>
       </c>
@@ -62562,7 +62562,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>2007</v>
       </c>
@@ -62582,7 +62582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>2007</v>
       </c>
@@ -62602,7 +62602,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>2007</v>
       </c>
@@ -62622,7 +62622,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>2007</v>
       </c>
@@ -62642,7 +62642,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>2007</v>
       </c>
@@ -62662,7 +62662,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>2007</v>
       </c>
@@ -62682,7 +62682,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>2007</v>
       </c>
@@ -62702,7 +62702,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>2007</v>
       </c>
@@ -62722,7 +62722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>2007</v>
       </c>
@@ -62742,7 +62742,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>2007</v>
       </c>
@@ -62762,7 +62762,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>2007</v>
       </c>
@@ -62782,7 +62782,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>2007</v>
       </c>
@@ -62802,7 +62802,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>2007</v>
       </c>
@@ -62822,7 +62822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>2007</v>
       </c>
@@ -62842,7 +62842,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>2007</v>
       </c>
@@ -62862,7 +62862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>2007</v>
       </c>
@@ -62882,7 +62882,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>2007</v>
       </c>
@@ -62902,7 +62902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>2007</v>
       </c>
@@ -62922,7 +62922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>2007</v>
       </c>
@@ -62942,7 +62942,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>2007</v>
       </c>
@@ -62962,7 +62962,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>2007</v>
       </c>
@@ -62982,7 +62982,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>2007</v>
       </c>
@@ -63002,7 +63002,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>2007</v>
       </c>
@@ -63022,7 +63022,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>2007</v>
       </c>
@@ -63042,7 +63042,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>2007</v>
       </c>
@@ -63062,7 +63062,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>2007</v>
       </c>
@@ -63082,7 +63082,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>2007</v>
       </c>
@@ -63102,7 +63102,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>2007</v>
       </c>
@@ -63122,7 +63122,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>2007</v>
       </c>
@@ -63942,7 +63942,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -64748,7 +64748,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>2010</v>
       </c>
@@ -64768,7 +64768,7 @@
         <v>32.65</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>2010</v>
       </c>
@@ -64788,7 +64788,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>2010</v>
       </c>
@@ -64808,7 +64808,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>2010</v>
       </c>
@@ -64828,7 +64828,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>2010</v>
       </c>
@@ -64848,7 +64848,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>2010</v>
       </c>
@@ -64868,7 +64868,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>2010</v>
       </c>
@@ -64888,7 +64888,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>2010</v>
       </c>
@@ -64908,7 +64908,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>2010</v>
       </c>
@@ -64928,7 +64928,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>2010</v>
       </c>
@@ -64948,7 +64948,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>2010</v>
       </c>
@@ -64968,7 +64968,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>2010</v>
       </c>
@@ -64988,7 +64988,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>2010</v>
       </c>
@@ -65008,7 +65008,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>2010</v>
       </c>
@@ -65028,7 +65028,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>2010</v>
       </c>
@@ -65048,7 +65048,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>2010</v>
       </c>
@@ -65068,7 +65068,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>2010</v>
       </c>
@@ -65088,7 +65088,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>2010</v>
       </c>
@@ -65108,7 +65108,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>2010</v>
       </c>
@@ -65128,7 +65128,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>2010</v>
       </c>
@@ -65148,7 +65148,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>2010</v>
       </c>
@@ -65168,7 +65168,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>2010</v>
       </c>
@@ -65188,7 +65188,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>2010</v>
       </c>
@@ -65208,7 +65208,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>2010</v>
       </c>
@@ -65228,7 +65228,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>2010</v>
       </c>
@@ -65248,7 +65248,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>2010</v>
       </c>
@@ -65268,7 +65268,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>2010</v>
       </c>
@@ -65288,7 +65288,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>2010</v>
       </c>
@@ -65308,7 +65308,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>2010</v>
       </c>
@@ -65328,7 +65328,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>2010</v>
       </c>
@@ -65348,7 +65348,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>2010</v>
       </c>
@@ -65368,7 +65368,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>2010</v>
       </c>
@@ -65388,7 +65388,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>2010</v>
       </c>
@@ -65408,7 +65408,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>2010</v>
       </c>
@@ -65428,7 +65428,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>2010</v>
       </c>
@@ -65448,7 +65448,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>2010</v>
       </c>
@@ -65468,7 +65468,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>2010</v>
       </c>
@@ -65488,7 +65488,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>2010</v>
       </c>
@@ -65508,7 +65508,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>2010</v>
       </c>
@@ -65528,7 +65528,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>2010</v>
       </c>
@@ -65548,7 +65548,7 @@
         <v>39.26</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>2011</v>
       </c>
@@ -65568,7 +65568,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>2011</v>
       </c>
@@ -65588,7 +65588,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>2011</v>
       </c>
@@ -65608,7 +65608,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>2011</v>
       </c>
@@ -65628,7 +65628,7 @@
         <v>27.33</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>2011</v>
       </c>
@@ -65648,7 +65648,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>2011</v>
       </c>
@@ -65668,7 +65668,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>2011</v>
       </c>
@@ -65688,7 +65688,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>2011</v>
       </c>
@@ -65708,7 +65708,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>2011</v>
       </c>
@@ -65728,7 +65728,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>2011</v>
       </c>
@@ -65748,7 +65748,7 @@
         <v>16.59</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>2011</v>
       </c>
@@ -65768,7 +65768,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>2011</v>
       </c>
@@ -65788,7 +65788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>2011</v>
       </c>
@@ -65808,7 +65808,7 @@
         <v>13.73</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>2011</v>
       </c>
@@ -65828,7 +65828,7 @@
         <v>22.91</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>2011</v>
       </c>
@@ -65848,7 +65848,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>2011</v>
       </c>
@@ -65868,7 +65868,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>2011</v>
       </c>
@@ -65888,7 +65888,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>2011</v>
       </c>
@@ -65908,7 +65908,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>2011</v>
       </c>
@@ -65928,7 +65928,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>2011</v>
       </c>
@@ -65948,7 +65948,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>2011</v>
       </c>
@@ -65968,7 +65968,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>2011</v>
       </c>
@@ -65988,7 +65988,7 @@
         <v>34.04</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>2011</v>
       </c>
@@ -66008,7 +66008,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>2011</v>
       </c>
@@ -66028,7 +66028,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>2011</v>
       </c>
@@ -66048,7 +66048,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>2011</v>
       </c>
@@ -66068,7 +66068,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>2011</v>
       </c>
@@ -66088,7 +66088,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>2011</v>
       </c>
@@ -66108,7 +66108,7 @@
         <v>49.79</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>2011</v>
       </c>
@@ -66128,7 +66128,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>2011</v>
       </c>
@@ -66148,7 +66148,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>2011</v>
       </c>
@@ -66168,7 +66168,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>2011</v>
       </c>
@@ -66188,7 +66188,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>2011</v>
       </c>
@@ -66208,7 +66208,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>2011</v>
       </c>
@@ -66228,7 +66228,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>2011</v>
       </c>
@@ -66248,7 +66248,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>2011</v>
       </c>
@@ -66268,7 +66268,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>2011</v>
       </c>
@@ -66288,7 +66288,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>2011</v>
       </c>
@@ -66308,7 +66308,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>2011</v>
       </c>
@@ -66328,7 +66328,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>2011</v>
       </c>
@@ -66348,7 +66348,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>2012</v>
       </c>
@@ -66368,7 +66368,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>2012</v>
       </c>
@@ -66388,7 +66388,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>2012</v>
       </c>
@@ -66408,7 +66408,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>2012</v>
       </c>
@@ -66428,7 +66428,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>2012</v>
       </c>
@@ -66448,7 +66448,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>2012</v>
       </c>
@@ -66468,7 +66468,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>2012</v>
       </c>
@@ -66488,7 +66488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>2012</v>
       </c>
@@ -66508,7 +66508,7 @@
         <v>30.93</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>2012</v>
       </c>
@@ -66528,7 +66528,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>2012</v>
       </c>
@@ -66548,7 +66548,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>2012</v>
       </c>
@@ -66568,7 +66568,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>2012</v>
       </c>
@@ -66588,7 +66588,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>2012</v>
       </c>
@@ -66608,7 +66608,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>2012</v>
       </c>
@@ -66628,7 +66628,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>2012</v>
       </c>
@@ -66648,7 +66648,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>2012</v>
       </c>
@@ -66668,7 +66668,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>2012</v>
       </c>
@@ -66688,7 +66688,7 @@
         <v>23.26</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>2012</v>
       </c>
@@ -66708,7 +66708,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>2012</v>
       </c>
@@ -66728,7 +66728,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>2012</v>
       </c>
@@ -66748,7 +66748,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>2012</v>
       </c>
@@ -66768,7 +66768,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>2012</v>
       </c>
@@ -66788,7 +66788,7 @@
         <v>35.96</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>2012</v>
       </c>
@@ -66808,7 +66808,7 @@
         <v>33.729999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>2012</v>
       </c>
@@ -66828,7 +66828,7 @@
         <v>28.17</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>2012</v>
       </c>
@@ -66848,7 +66848,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>2012</v>
       </c>
@@ -66868,7 +66868,7 @@
         <v>50.83</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>2012</v>
       </c>
@@ -66888,7 +66888,7 @@
         <v>33.479999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>2012</v>
       </c>
@@ -66908,7 +66908,7 @@
         <v>48.09</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>2012</v>
       </c>
@@ -66928,7 +66928,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>2012</v>
       </c>
@@ -66948,7 +66948,7 @@
         <v>19.760000000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>2012</v>
       </c>
@@ -66968,7 +66968,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>2012</v>
       </c>
@@ -66988,7 +66988,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>2012</v>
       </c>
@@ -67008,7 +67008,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>2012</v>
       </c>
@@ -67028,7 +67028,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>2012</v>
       </c>
@@ -67048,7 +67048,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>2012</v>
       </c>
@@ -67068,7 +67068,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>2012</v>
       </c>
@@ -67088,7 +67088,7 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>2012</v>
       </c>
@@ -67108,7 +67108,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>2012</v>
       </c>
@@ -67128,7 +67128,7 @@
         <v>35.61</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>2012</v>
       </c>
@@ -67148,7 +67148,7 @@
         <v>41.32</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>2013</v>
       </c>
@@ -67168,7 +67168,7 @@
         <v>37.07</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>2013</v>
       </c>
@@ -67188,7 +67188,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>2013</v>
       </c>
@@ -67208,7 +67208,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>2013</v>
       </c>
@@ -67228,7 +67228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>2013</v>
       </c>
@@ -67248,7 +67248,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>2013</v>
       </c>
@@ -67268,7 +67268,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>2013</v>
       </c>
@@ -67288,7 +67288,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>2013</v>
       </c>
@@ -67308,7 +67308,7 @@
         <v>34.36</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>2013</v>
       </c>
@@ -67328,7 +67328,7 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>2013</v>
       </c>
@@ -67348,7 +67348,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>2013</v>
       </c>
@@ -67368,7 +67368,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>2013</v>
       </c>
@@ -67388,7 +67388,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>2013</v>
       </c>
@@ -67408,7 +67408,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>2013</v>
       </c>
@@ -67428,7 +67428,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>2013</v>
       </c>
@@ -67448,7 +67448,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>2013</v>
       </c>
@@ -67468,7 +67468,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>2013</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>2013</v>
       </c>
@@ -67508,7 +67508,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>2013</v>
       </c>
@@ -67528,7 +67528,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>2013</v>
       </c>
@@ -67548,7 +67548,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>2013</v>
       </c>
@@ -67568,7 +67568,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>2013</v>
       </c>
@@ -67588,7 +67588,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>2013</v>
       </c>
@@ -67608,7 +67608,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>2013</v>
       </c>
@@ -67628,7 +67628,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>2013</v>
       </c>
@@ -67648,7 +67648,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>2013</v>
       </c>
@@ -67668,7 +67668,7 @@
         <v>52.43</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>2013</v>
       </c>
@@ -67688,7 +67688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>2013</v>
       </c>
@@ -67708,7 +67708,7 @@
         <v>49.33</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>2013</v>
       </c>
@@ -67728,7 +67728,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>2013</v>
       </c>
@@ -67748,7 +67748,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>2013</v>
       </c>
@@ -67768,7 +67768,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>2013</v>
       </c>
@@ -67788,7 +67788,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>2013</v>
       </c>
@@ -67808,7 +67808,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>2013</v>
       </c>
@@ -67828,7 +67828,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>2013</v>
       </c>
@@ -67848,7 +67848,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>2013</v>
       </c>
@@ -67868,7 +67868,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>2013</v>
       </c>
@@ -67888,7 +67888,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>2013</v>
       </c>
@@ -67908,7 +67908,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>2013</v>
       </c>
@@ -67928,7 +67928,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>2013</v>
       </c>
@@ -67948,7 +67948,7 @@
         <v>43.04</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>2014</v>
       </c>
@@ -67968,7 +67968,7 @@
         <v>37.89</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>2014</v>
       </c>
@@ -67988,7 +67988,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>2014</v>
       </c>
@@ -68008,7 +68008,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>2014</v>
       </c>
@@ -68028,7 +68028,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>2014</v>
       </c>
@@ -68048,7 +68048,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>2014</v>
       </c>
@@ -68068,7 +68068,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>2014</v>
       </c>
@@ -68088,7 +68088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>2014</v>
       </c>
@@ -68108,7 +68108,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>2014</v>
       </c>
@@ -68128,7 +68128,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>2014</v>
       </c>
@@ -68148,7 +68148,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>2014</v>
       </c>
@@ -68168,7 +68168,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>2014</v>
       </c>
@@ -68188,7 +68188,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>2014</v>
       </c>
@@ -68208,7 +68208,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>2014</v>
       </c>
@@ -68228,7 +68228,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>2014</v>
       </c>
@@ -68248,7 +68248,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>2014</v>
       </c>
@@ -68268,7 +68268,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>2014</v>
       </c>
@@ -68288,7 +68288,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>2014</v>
       </c>
@@ -68308,7 +68308,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>2014</v>
       </c>
@@ -68328,7 +68328,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>2014</v>
       </c>
@@ -68348,7 +68348,7 @@
         <v>24.46</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>2014</v>
       </c>
@@ -68368,7 +68368,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>2014</v>
       </c>
@@ -68388,7 +68388,7 @@
         <v>36.92</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>2014</v>
       </c>
@@ -68408,7 +68408,7 @@
         <v>37.380000000000003</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>2014</v>
       </c>
@@ -68428,7 +68428,7 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>2014</v>
       </c>
@@ -68448,7 +68448,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>2014</v>
       </c>
@@ -68468,7 +68468,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>2014</v>
       </c>
@@ -68488,7 +68488,7 @@
         <v>40.01</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>2014</v>
       </c>
@@ -68508,7 +68508,7 @@
         <v>53.85</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>2014</v>
       </c>
@@ -68528,7 +68528,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>2014</v>
       </c>
@@ -68548,7 +68548,7 @@
         <v>26.08</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>2014</v>
       </c>
@@ -68568,7 +68568,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>2014</v>
       </c>
@@ -68588,7 +68588,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>2014</v>
       </c>
@@ -68608,7 +68608,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>2014</v>
       </c>
@@ -68628,7 +68628,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>2014</v>
       </c>
@@ -68648,7 +68648,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>2014</v>
       </c>
@@ -68668,7 +68668,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>2014</v>
       </c>
@@ -68688,7 +68688,7 @@
         <v>21.08</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>2014</v>
       </c>
@@ -68708,7 +68708,7 @@
         <v>27.86</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>2014</v>
       </c>
@@ -68728,7 +68728,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>2014</v>
       </c>
@@ -68748,7 +68748,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>2015</v>
       </c>
@@ -68768,7 +68768,7 @@
         <v>39.33</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>2015</v>
       </c>
@@ -68788,7 +68788,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>2015</v>
       </c>
@@ -68808,7 +68808,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>2015</v>
       </c>
@@ -68828,7 +68828,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>2015</v>
       </c>
@@ -68848,7 +68848,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>2015</v>
       </c>
@@ -68868,7 +68868,7 @@
         <v>36.44</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>2015</v>
       </c>
@@ -68888,7 +68888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>2015</v>
       </c>
@@ -68908,7 +68908,7 @@
         <v>35.94</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>2015</v>
       </c>
@@ -68928,7 +68928,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>2015</v>
       </c>
@@ -68948,7 +68948,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>2015</v>
       </c>
@@ -68968,7 +68968,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>2015</v>
       </c>
@@ -68988,7 +68988,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>2015</v>
       </c>
@@ -69008,7 +69008,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>2015</v>
       </c>
@@ -69028,7 +69028,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>2015</v>
       </c>
@@ -69048,7 +69048,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>2015</v>
       </c>
@@ -69068,7 +69068,7 @@
         <v>38.94</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>2015</v>
       </c>
@@ -69088,7 +69088,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>2015</v>
       </c>
@@ -69108,7 +69108,7 @@
         <v>35.21</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>2015</v>
       </c>
@@ -69128,7 +69128,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>2015</v>
       </c>
@@ -69148,7 +69148,7 @@
         <v>29.03</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>2015</v>
       </c>
@@ -69168,7 +69168,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>2015</v>
       </c>
@@ -69188,7 +69188,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>2015</v>
       </c>
@@ -69208,7 +69208,7 @@
         <v>38.54</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>2015</v>
       </c>
@@ -69228,7 +69228,7 @@
         <v>34.020000000000003</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>2015</v>
       </c>
@@ -69248,7 +69248,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>2015</v>
       </c>
@@ -69268,7 +69268,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>2015</v>
       </c>
@@ -69288,7 +69288,7 @@
         <v>41.72</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>2015</v>
       </c>
@@ -69308,7 +69308,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>2015</v>
       </c>
@@ -69328,7 +69328,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>2015</v>
       </c>
@@ -69348,7 +69348,7 @@
         <v>30.56</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>2015</v>
       </c>
@@ -69368,7 +69368,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
         <v>2015</v>
       </c>
@@ -69388,7 +69388,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
         <v>2015</v>
       </c>
@@ -69408,7 +69408,7 @@
         <v>29.36</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>2015</v>
       </c>
@@ -69428,7 +69428,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
         <v>2015</v>
       </c>
@@ -69448,7 +69448,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
         <v>2015</v>
       </c>
@@ -69468,7 +69468,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>2015</v>
       </c>
@@ -69488,7 +69488,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>2015</v>
       </c>
@@ -69508,7 +69508,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>2015</v>
       </c>
@@ -69528,7 +69528,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
         <v>2015</v>
       </c>
@@ -69548,7 +69548,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>2016</v>
       </c>
@@ -69568,7 +69568,7 @@
         <v>40.61</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>2016</v>
       </c>
@@ -69588,7 +69588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
         <v>2016</v>
       </c>
@@ -69608,7 +69608,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <v>2016</v>
       </c>
@@ -69628,7 +69628,7 @@
         <v>36.68</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>2016</v>
       </c>
@@ -69648,7 +69648,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
         <v>2016</v>
       </c>
@@ -69668,7 +69668,7 @@
         <v>38.08</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>2016</v>
       </c>
@@ -69688,7 +69688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>2016</v>
       </c>
@@ -69708,7 +69708,7 @@
         <v>40.06</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>2016</v>
       </c>
@@ -69728,7 +69728,7 @@
         <v>37.229999999999997</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
         <v>2016</v>
       </c>
@@ -69748,7 +69748,7 @@
         <v>34.01</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>2016</v>
       </c>
@@ -69768,7 +69768,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>2016</v>
       </c>
@@ -69788,7 +69788,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>2016</v>
       </c>
@@ -69808,7 +69808,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
         <v>2016</v>
       </c>
@@ -69828,7 +69828,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>2016</v>
       </c>
@@ -69848,7 +69848,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>2016</v>
       </c>
@@ -69868,7 +69868,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>2016</v>
       </c>
@@ -69888,7 +69888,7 @@
         <v>35.43</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>2016</v>
       </c>
@@ -69908,7 +69908,7 @@
         <v>39.67</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>2016</v>
       </c>
@@ -69928,7 +69928,7 @@
         <v>34.81</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
         <v>2016</v>
       </c>
@@ -69948,7 +69948,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>2016</v>
       </c>
@@ -69968,7 +69968,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
         <v>2016</v>
       </c>
@@ -69988,7 +69988,7 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>2016</v>
       </c>
@@ -70008,7 +70008,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
         <v>2016</v>
       </c>
@@ -70028,7 +70028,7 @@
         <v>35.979999999999997</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>2016</v>
       </c>
@@ -70048,7 +70048,7 @@
         <v>42.21</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>2016</v>
       </c>
@@ -70068,7 +70068,7 @@
         <v>52.57</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>2016</v>
       </c>
@@ -70088,7 +70088,7 @@
         <v>42.37</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>2016</v>
       </c>
@@ -70108,7 +70108,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>2016</v>
       </c>
@@ -70128,7 +70128,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>2016</v>
       </c>
@@ -70148,7 +70148,7 @@
         <v>34.840000000000003</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>2016</v>
       </c>
@@ -70168,7 +70168,7 @@
         <v>33.15</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>2016</v>
       </c>
@@ -70188,7 +70188,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>2016</v>
       </c>
@@ -70208,7 +70208,7 @@
         <v>31.22</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>2016</v>
       </c>
@@ -70228,7 +70228,7 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>2016</v>
       </c>
@@ -70248,7 +70248,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
         <v>2016</v>
       </c>
@@ -70268,7 +70268,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>2016</v>
       </c>
@@ -70288,7 +70288,7 @@
         <v>25.71</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
         <v>2016</v>
       </c>
@@ -70308,7 +70308,7 @@
         <v>31.21</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>2016</v>
       </c>
@@ -70328,7 +70328,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>2016</v>
       </c>
@@ -70348,7 +70348,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>2017</v>
       </c>
@@ -70368,7 +70368,7 @@
         <v>41.74</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>2017</v>
       </c>
@@ -70388,7 +70388,7 @@
         <v>44.52</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>2017</v>
       </c>
@@ -70408,7 +70408,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>2017</v>
       </c>
@@ -70428,7 +70428,7 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3">
         <v>2017</v>
       </c>
@@ -70448,7 +70448,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3">
         <v>2017</v>
       </c>
@@ -70468,7 +70468,7 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>2017</v>
       </c>
@@ -70488,7 +70488,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>2017</v>
       </c>
@@ -70508,7 +70508,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>2017</v>
       </c>
@@ -70528,7 +70528,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
         <v>2017</v>
       </c>
@@ -70548,7 +70548,7 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>2017</v>
       </c>
@@ -70568,7 +70568,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>2017</v>
       </c>
@@ -70588,7 +70588,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
         <v>2017</v>
       </c>
@@ -70608,7 +70608,7 @@
         <v>31.18</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="3">
         <v>2017</v>
       </c>
@@ -70628,7 +70628,7 @@
         <v>45.73</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
         <v>2017</v>
       </c>
@@ -70648,7 +70648,7 @@
         <v>28.04</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
         <v>2017</v>
       </c>
@@ -70668,7 +70668,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
         <v>2017</v>
       </c>
@@ -70688,7 +70688,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
         <v>2017</v>
       </c>
@@ -70708,7 +70708,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
         <v>2017</v>
       </c>
@@ -70728,7 +70728,7 @@
         <v>42.29</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>2017</v>
       </c>
@@ -70748,7 +70748,7 @@
         <v>35.57</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>2017</v>
       </c>
@@ -70768,7 +70768,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="3">
         <v>2017</v>
       </c>
@@ -70788,7 +70788,7 @@
         <v>43.09</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>2017</v>
       </c>
@@ -70808,7 +70808,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="3">
         <v>2017</v>
       </c>
@@ -70828,7 +70828,7 @@
         <v>37.549999999999997</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3">
         <v>2017</v>
       </c>
@@ -70848,7 +70848,7 @@
         <v>44.16</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="3">
         <v>2017</v>
       </c>
@@ -70868,7 +70868,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>2017</v>
       </c>
@@ -70888,7 +70888,7 @@
         <v>42.91</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>2017</v>
       </c>
@@ -70908,7 +70908,7 @@
         <v>61.23</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>2017</v>
       </c>
@@ -70928,7 +70928,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="3">
         <v>2017</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3">
         <v>2017</v>
       </c>
@@ -70968,7 +70968,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>2017</v>
       </c>
@@ -70988,7 +70988,7 @@
         <v>33.03</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>2017</v>
       </c>
@@ -71008,7 +71008,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="3">
         <v>2017</v>
       </c>
@@ -71028,7 +71028,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3">
         <v>2017</v>
       </c>
@@ -71048,7 +71048,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="3">
         <v>2017</v>
       </c>
@@ -71068,7 +71068,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3">
         <v>2017</v>
       </c>
@@ -71088,7 +71088,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="3">
         <v>2017</v>
       </c>
@@ -71108,7 +71108,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3">
         <v>2017</v>
       </c>
@@ -71128,7 +71128,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="3">
         <v>2017</v>
       </c>
@@ -71148,7 +71148,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3">
         <v>2018</v>
       </c>
@@ -71168,7 +71168,7 @@
         <v>43.54</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="3">
         <v>2018</v>
       </c>
@@ -71188,7 +71188,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3">
         <v>2018</v>
       </c>
@@ -71208,7 +71208,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="3">
         <v>2018</v>
       </c>
@@ -71228,7 +71228,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3">
         <v>2018</v>
       </c>
@@ -71248,7 +71248,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3">
         <v>2018</v>
       </c>
@@ -71268,7 +71268,7 @@
         <v>42.09</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3">
         <v>2018</v>
       </c>
@@ -71288,7 +71288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="3">
         <v>2018</v>
       </c>
@@ -71308,7 +71308,7 @@
         <v>40.770000000000003</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3">
         <v>2018</v>
       </c>
@@ -71328,7 +71328,7 @@
         <v>42.11</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="3">
         <v>2018</v>
       </c>
@@ -71348,7 +71348,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3">
         <v>2018</v>
       </c>
@@ -71368,7 +71368,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="3">
         <v>2018</v>
       </c>
@@ -71388,7 +71388,7 @@
         <v>35.32</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3">
         <v>2018</v>
       </c>
@@ -71408,7 +71408,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="3">
         <v>2018</v>
       </c>
@@ -71428,7 +71428,7 @@
         <v>51.61</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3">
         <v>2018</v>
       </c>
@@ -71448,7 +71448,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="3">
         <v>2018</v>
       </c>
@@ -71468,7 +71468,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3">
         <v>2018</v>
       </c>
@@ -71488,7 +71488,7 @@
         <v>38.68</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="3">
         <v>2018</v>
       </c>
@@ -71508,7 +71508,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="3">
         <v>2018</v>
       </c>
@@ -71528,7 +71528,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="3">
         <v>2018</v>
       </c>
@@ -71548,7 +71548,7 @@
         <v>37.53</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3">
         <v>2018</v>
       </c>
@@ -71568,7 +71568,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="3">
         <v>2018</v>
       </c>
@@ -71588,7 +71588,7 @@
         <v>44.56</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3">
         <v>2018</v>
       </c>
@@ -71608,7 +71608,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="3">
         <v>2018</v>
       </c>
@@ -71628,7 +71628,7 @@
         <v>40.96</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3">
         <v>2018</v>
       </c>
@@ -71648,7 +71648,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="3">
         <v>2018</v>
       </c>
@@ -71668,7 +71668,7 @@
         <v>62.21</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3">
         <v>2018</v>
       </c>
@@ -71688,7 +71688,7 @@
         <v>44.34</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="3">
         <v>2018</v>
       </c>
@@ -71708,7 +71708,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3">
         <v>2018</v>
       </c>
@@ -71728,7 +71728,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="3">
         <v>2018</v>
       </c>
@@ -71748,7 +71748,7 @@
         <v>40.49</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3">
         <v>2018</v>
       </c>
@@ -71768,7 +71768,7 @@
         <v>38.630000000000003</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="3">
         <v>2018</v>
       </c>
@@ -71788,7 +71788,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3">
         <v>2018</v>
       </c>
@@ -71808,7 +71808,7 @@
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="3">
         <v>2018</v>
       </c>
@@ -71828,7 +71828,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3">
         <v>2018</v>
       </c>
@@ -71848,7 +71848,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="3">
         <v>2018</v>
       </c>
@@ -71868,7 +71868,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3">
         <v>2018</v>
       </c>
@@ -71888,7 +71888,7 @@
         <v>33.42</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="3">
         <v>2018</v>
       </c>
@@ -71908,7 +71908,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3">
         <v>2018</v>
       </c>
@@ -71928,7 +71928,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="3">
         <v>2018</v>
       </c>
@@ -71948,7 +71948,7 @@
         <v>50.88</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3">
         <v>2019</v>
       </c>
@@ -71968,7 +71968,7 @@
         <v>45.64</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="3">
         <v>2019</v>
       </c>
@@ -71988,7 +71988,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3">
         <v>2019</v>
       </c>
@@ -72008,7 +72008,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="3">
         <v>2019</v>
       </c>
@@ -72028,7 +72028,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3">
         <v>2019</v>
       </c>
@@ -72048,7 +72048,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="3">
         <v>2019</v>
       </c>
@@ -72068,7 +72068,7 @@
         <v>43.64</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3">
         <v>2019</v>
       </c>
@@ -72088,7 +72088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="3">
         <v>2019</v>
       </c>
@@ -72108,7 +72108,7 @@
         <v>44.91</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3">
         <v>2019</v>
       </c>
@@ -72128,7 +72128,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="3">
         <v>2019</v>
       </c>
@@ -72148,7 +72148,7 @@
         <v>45.06</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3">
         <v>2019</v>
       </c>
@@ -72168,7 +72168,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="3">
         <v>2019</v>
       </c>
@@ -72188,7 +72188,7 @@
         <v>36.340000000000003</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3">
         <v>2019</v>
       </c>
@@ -72208,7 +72208,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="3">
         <v>2019</v>
       </c>
@@ -72228,7 +72228,7 @@
         <v>54.08</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3">
         <v>2019</v>
       </c>
@@ -72248,7 +72248,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="3">
         <v>2019</v>
       </c>
@@ -72268,7 +72268,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3">
         <v>2019</v>
       </c>
@@ -72288,7 +72288,7 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="3">
         <v>2019</v>
       </c>
@@ -72308,7 +72308,7 @@
         <v>49.71</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3">
         <v>2019</v>
       </c>
@@ -72328,7 +72328,7 @@
         <v>32.619999999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="3">
         <v>2019</v>
       </c>
@@ -72348,7 +72348,7 @@
         <v>37.82</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3">
         <v>2019</v>
       </c>
@@ -72368,7 +72368,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="3">
         <v>2019</v>
       </c>
@@ -72388,7 +72388,7 @@
         <v>46.14</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3">
         <v>2019</v>
       </c>
@@ -72408,7 +72408,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="3">
         <v>2019</v>
       </c>
@@ -72428,7 +72428,7 @@
         <v>42.86</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3">
         <v>2019</v>
       </c>
@@ -72448,7 +72448,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="3">
         <v>2019</v>
       </c>
@@ -72468,7 +72468,7 @@
         <v>69.67</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3">
         <v>2019</v>
       </c>
@@ -72488,7 +72488,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="3">
         <v>2019</v>
       </c>
@@ -72508,7 +72508,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3">
         <v>2019</v>
       </c>
@@ -72528,7 +72528,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="3">
         <v>2019</v>
       </c>
@@ -72548,7 +72548,7 @@
         <v>42.96</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3">
         <v>2019</v>
       </c>
@@ -72568,7 +72568,7 @@
         <v>40.590000000000003</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="3">
         <v>2019</v>
       </c>
@@ -72588,7 +72588,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3">
         <v>2019</v>
       </c>
@@ -72608,7 +72608,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="3">
         <v>2019</v>
       </c>
@@ -72628,7 +72628,7 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3">
         <v>2019</v>
       </c>
@@ -72648,7 +72648,7 @@
         <v>32.81</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="3">
         <v>2019</v>
       </c>
@@ -72668,7 +72668,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3">
         <v>2019</v>
       </c>
@@ -72688,7 +72688,7 @@
         <v>36.659999999999997</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="3">
         <v>2019</v>
       </c>
@@ -72708,7 +72708,7 @@
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3">
         <v>2019</v>
       </c>
@@ -72728,7 +72728,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="3">
         <v>2019</v>
       </c>
@@ -72748,7 +72748,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3">
         <v>2020</v>
       </c>
@@ -72768,7 +72768,7 @@
         <v>50.39</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="3">
         <v>2020</v>
       </c>
@@ -72788,7 +72788,7 @@
         <v>62.32</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3">
         <v>2020</v>
       </c>
@@ -72808,7 +72808,7 @@
         <v>24.29</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="3">
         <v>2020</v>
       </c>
@@ -72828,7 +72828,7 @@
         <v>47.91</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3">
         <v>2020</v>
       </c>
@@ -72848,7 +72848,7 @@
         <v>42.59</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="3">
         <v>2020</v>
       </c>
@@ -72868,7 +72868,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3">
         <v>2020</v>
       </c>
@@ -72888,7 +72888,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="3">
         <v>2020</v>
       </c>
@@ -72908,7 +72908,7 @@
         <v>42.51</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3">
         <v>2020</v>
       </c>
@@ -72928,7 +72928,7 @@
         <v>52.51</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="3">
         <v>2020</v>
       </c>
@@ -72948,7 +72948,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3">
         <v>2020</v>
       </c>
@@ -72968,7 +72968,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="3">
         <v>2020</v>
       </c>
@@ -72988,7 +72988,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3">
         <v>2020</v>
       </c>
@@ -73008,7 +73008,7 @@
         <v>37.36</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="3">
         <v>2020</v>
       </c>
@@ -73028,7 +73028,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3">
         <v>2020</v>
       </c>
@@ -73048,7 +73048,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="3">
         <v>2020</v>
       </c>
@@ -73068,7 +73068,7 @@
         <v>80.77</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3">
         <v>2020</v>
       </c>
@@ -73088,7 +73088,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="3">
         <v>2020</v>
       </c>
@@ -73108,7 +73108,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3">
         <v>2020</v>
       </c>
@@ -73128,7 +73128,7 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="3">
         <v>2020</v>
       </c>
@@ -73148,7 +73148,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3">
         <v>2020</v>
       </c>
@@ -73168,7 +73168,7 @@
         <v>37.840000000000003</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="3">
         <v>2020</v>
       </c>
@@ -73188,7 +73188,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3">
         <v>2020</v>
       </c>
@@ -73208,7 +73208,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="3">
         <v>2020</v>
       </c>
@@ -73228,7 +73228,7 @@
         <v>48.48</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3">
         <v>2020</v>
       </c>
@@ -73248,7 +73248,7 @@
         <v>50.84</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="3">
         <v>2020</v>
       </c>
@@ -73268,7 +73268,7 @@
         <v>71.650000000000006</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="3">
         <v>2020</v>
       </c>
@@ -73288,7 +73288,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="3">
         <v>2020</v>
       </c>
@@ -73308,7 +73308,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="3">
         <v>2020</v>
       </c>
@@ -73328,7 +73328,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="3">
         <v>2020</v>
       </c>
@@ -73348,7 +73348,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="3">
         <v>2020</v>
       </c>
@@ -73368,7 +73368,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="3">
         <v>2020</v>
       </c>
@@ -73388,7 +73388,7 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="3">
         <v>2020</v>
       </c>
@@ -73408,7 +73408,7 @@
         <v>42.53</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="3">
         <v>2020</v>
       </c>
@@ -73428,7 +73428,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="3">
         <v>2020</v>
       </c>
@@ -73448,7 +73448,7 @@
         <v>37.04</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="3">
         <v>2020</v>
       </c>
@@ -73468,7 +73468,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="3">
         <v>2020</v>
       </c>
@@ -73488,7 +73488,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="3">
         <v>2020</v>
       </c>
@@ -73508,7 +73508,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="3">
         <v>2020</v>
       </c>
@@ -73528,7 +73528,7 @@
         <v>51.57</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="3">
         <v>2020</v>
       </c>
@@ -73548,7 +73548,7 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="3">
         <v>2021</v>
       </c>
@@ -73568,7 +73568,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="3">
         <v>2021</v>
       </c>
@@ -73588,7 +73588,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="3">
         <v>2021</v>
       </c>
@@ -73608,7 +73608,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="3">
         <v>2021</v>
       </c>
@@ -73628,7 +73628,7 @@
         <v>53.88</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="3">
         <v>2021</v>
       </c>
@@ -73648,7 +73648,7 @@
         <v>45.02</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="3">
         <v>2021</v>
       </c>
@@ -73668,7 +73668,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="3">
         <v>2021</v>
       </c>
@@ -73688,7 +73688,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="3">
         <v>2021</v>
       </c>
@@ -73708,7 +73708,7 @@
         <v>43.03</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="3">
         <v>2021</v>
       </c>
@@ -73728,7 +73728,7 @@
         <v>55.92</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="3">
         <v>2021</v>
       </c>
@@ -73748,7 +73748,7 @@
         <v>56.63</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="3">
         <v>2021</v>
       </c>
@@ -73768,7 +73768,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="3">
         <v>2021</v>
       </c>
@@ -73788,7 +73788,7 @@
         <v>47.23</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="3">
         <v>2021</v>
       </c>
@@ -73808,7 +73808,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="3">
         <v>2021</v>
       </c>
@@ -73828,7 +73828,7 @@
         <v>57.91</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="3">
         <v>2021</v>
       </c>
@@ -73848,7 +73848,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="3">
         <v>2021</v>
       </c>
@@ -73868,7 +73868,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="3">
         <v>2021</v>
       </c>
@@ -73888,7 +73888,7 @@
         <v>45.91</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="3">
         <v>2021</v>
       </c>
@@ -73908,7 +73908,7 @@
         <v>56.68</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="3">
         <v>2021</v>
       </c>
@@ -73928,7 +73928,7 @@
         <v>48.08</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="3">
         <v>2021</v>
       </c>
@@ -73948,7 +73948,7 @@
         <v>48.73</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="3">
         <v>2021</v>
       </c>
@@ -73968,7 +73968,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="3">
         <v>2021</v>
       </c>
@@ -73988,7 +73988,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="3">
         <v>2021</v>
       </c>
@@ -74008,7 +74008,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="3">
         <v>2021</v>
       </c>
@@ -74028,7 +74028,7 @@
         <v>51.11</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="3">
         <v>2021</v>
       </c>
@@ -74048,7 +74048,7 @@
         <v>57.99</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="3">
         <v>2021</v>
       </c>
@@ -74068,7 +74068,7 @@
         <v>68.55</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="3">
         <v>2021</v>
       </c>
@@ -74088,7 +74088,7 @@
         <v>53.91</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="3">
         <v>2021</v>
       </c>
@@ -74108,7 +74108,7 @@
         <v>72.41</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="3">
         <v>2021</v>
       </c>
@@ -74128,7 +74128,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="3">
         <v>2021</v>
       </c>
@@ -74148,7 +74148,7 @@
         <v>47.37</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="3">
         <v>2021</v>
       </c>
@@ -74168,7 +74168,7 @@
         <v>43.18</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="3">
         <v>2021</v>
       </c>
@@ -74188,7 +74188,7 @@
         <v>42.35</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="3">
         <v>2021</v>
       </c>
@@ -74208,7 +74208,7 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="3">
         <v>2021</v>
       </c>
@@ -74228,7 +74228,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="3">
         <v>2021</v>
       </c>
@@ -74248,7 +74248,7 @@
         <v>39.29</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="3">
         <v>2021</v>
       </c>
@@ -74268,7 +74268,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="3">
         <v>2021</v>
       </c>
@@ -74288,7 +74288,7 @@
         <v>40.53</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="3">
         <v>2021</v>
       </c>
@@ -74308,7 +74308,7 @@
         <v>45.59</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="3">
         <v>2021</v>
       </c>
@@ -74328,7 +74328,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="3">
         <v>2021</v>
       </c>
@@ -74348,7 +74348,7 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="3">
         <v>2022</v>
       </c>
@@ -74368,7 +74368,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="3">
         <v>2022</v>
       </c>
@@ -74388,7 +74388,7 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="3">
         <v>2022</v>
       </c>
@@ -74408,7 +74408,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="3">
         <v>2022</v>
       </c>
@@ -74428,7 +74428,7 @@
         <v>54.09</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="3">
         <v>2022</v>
       </c>
@@ -74448,7 +74448,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="3">
         <v>2022</v>
       </c>
@@ -74468,7 +74468,7 @@
         <v>52.83</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="3">
         <v>2022</v>
       </c>
@@ -74488,7 +74488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="3">
         <v>2022</v>
       </c>
@@ -74508,7 +74508,7 @@
         <v>55.51</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="3">
         <v>2022</v>
       </c>
@@ -74528,7 +74528,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="3">
         <v>2022</v>
       </c>
@@ -74548,7 +74548,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="3">
         <v>2022</v>
       </c>
@@ -74568,7 +74568,7 @@
         <v>45.87</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="3">
         <v>2022</v>
       </c>
@@ -74588,7 +74588,7 @@
         <v>50.81</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="3">
         <v>2022</v>
       </c>
@@ -74608,7 +74608,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="3">
         <v>2022</v>
       </c>
@@ -74628,7 +74628,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="3">
         <v>2022</v>
       </c>
@@ -74648,7 +74648,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="3">
         <v>2022</v>
       </c>
@@ -74668,7 +74668,7 @@
         <v>89.47</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="3">
         <v>2022</v>
       </c>
@@ -74688,7 +74688,7 @@
         <v>51.23</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="3">
         <v>2022</v>
       </c>
@@ -74708,7 +74708,7 @@
         <v>60.63</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="3">
         <v>2022</v>
       </c>
@@ -74728,7 +74728,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="3">
         <v>2022</v>
       </c>
@@ -74748,7 +74748,7 @@
         <v>46.49</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="3">
         <v>2022</v>
       </c>
@@ -74768,7 +74768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="3">
         <v>2022</v>
       </c>
@@ -74788,7 +74788,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="3">
         <v>2022</v>
       </c>
@@ -74808,7 +74808,7 @@
         <v>58.86</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="3">
         <v>2022</v>
       </c>
@@ -74828,7 +74828,7 @@
         <v>53.52</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="3">
         <v>2022</v>
       </c>
@@ -74848,7 +74848,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="3">
         <v>2022</v>
       </c>
@@ -74868,7 +74868,7 @@
         <v>76.38</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="3">
         <v>2022</v>
       </c>
@@ -74888,7 +74888,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="3">
         <v>2022</v>
       </c>
@@ -74908,7 +74908,7 @@
         <v>81.47</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="3">
         <v>2022</v>
       </c>
@@ -74928,7 +74928,7 @@
         <v>38.67</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="3">
         <v>2022</v>
       </c>
@@ -74948,7 +74948,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="3">
         <v>2022</v>
       </c>
@@ -74968,7 +74968,7 @@
         <v>45.22</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="3">
         <v>2022</v>
       </c>
@@ -74988,7 +74988,7 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="3">
         <v>2022</v>
       </c>
@@ -75008,7 +75008,7 @@
         <v>47.42</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="3">
         <v>2022</v>
       </c>
@@ -75028,7 +75028,7 @@
         <v>34.94</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="3">
         <v>2022</v>
       </c>
@@ -75048,7 +75048,7 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="3">
         <v>2022</v>
       </c>
@@ -75068,7 +75068,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="3">
         <v>2022</v>
       </c>
@@ -75088,7 +75088,7 @@
         <v>43.57</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="3">
         <v>2022</v>
       </c>
@@ -75108,7 +75108,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="3">
         <v>2022</v>
       </c>
@@ -75128,7 +75128,7 @@
         <v>59.94</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="3">
         <v>2022</v>
       </c>
@@ -75148,7 +75148,7 @@
         <v>63.05</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="3">
         <v>2023</v>
       </c>
@@ -75168,7 +75168,7 @@
         <v>57.49</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="3">
         <v>2023</v>
       </c>
@@ -75188,7 +75188,7 @@
         <v>70.790000000000006</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="3">
         <v>2023</v>
       </c>
@@ -75208,7 +75208,7 @@
         <v>36.53</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="3">
         <v>2023</v>
       </c>
@@ -75228,7 +75228,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="3">
         <v>2023</v>
       </c>
@@ -75248,7 +75248,7 @@
         <v>58.96</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="3">
         <v>2023</v>
       </c>
@@ -75268,7 +75268,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="3">
         <v>2023</v>
       </c>
@@ -75288,7 +75288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="3">
         <v>2023</v>
       </c>
@@ -75308,7 +75308,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="3">
         <v>2023</v>
       </c>
@@ -75328,7 +75328,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="3">
         <v>2023</v>
       </c>
@@ -75348,7 +75348,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="3">
         <v>2023</v>
       </c>
@@ -75368,7 +75368,7 @@
         <v>43.88</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="3">
         <v>2023</v>
       </c>
@@ -75388,7 +75388,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="3">
         <v>2023</v>
       </c>
@@ -75408,7 +75408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="3">
         <v>2023</v>
       </c>
@@ -75428,7 +75428,7 @@
         <v>64.36</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="3">
         <v>2023</v>
       </c>
@@ -75448,7 +75448,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="3">
         <v>2023</v>
       </c>
@@ -75468,7 +75468,7 @@
         <v>91.41</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="3">
         <v>2023</v>
       </c>
@@ -75488,7 +75488,7 @@
         <v>53.44</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="3">
         <v>2023</v>
       </c>
@@ -75508,7 +75508,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="3">
         <v>2023</v>
       </c>
@@ -75528,7 +75528,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="3">
         <v>2023</v>
       </c>
@@ -75548,7 +75548,7 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="3">
         <v>2023</v>
       </c>
@@ -75568,7 +75568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="3">
         <v>2023</v>
       </c>
@@ -75588,7 +75588,7 @@
         <v>53.55</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="3">
         <v>2023</v>
       </c>
@@ -75608,7 +75608,7 @@
         <v>61.16</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="3">
         <v>2023</v>
       </c>
@@ -75628,7 +75628,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="3">
         <v>2023</v>
       </c>
@@ -75648,7 +75648,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="3">
         <v>2023</v>
       </c>
@@ -75668,7 +75668,7 @@
         <v>77.569999999999993</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="3">
         <v>2023</v>
       </c>
@@ -75688,7 +75688,7 @@
         <v>59.06</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="3">
         <v>2023</v>
       </c>
@@ -75708,7 +75708,7 @@
         <v>83.23</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="3">
         <v>2023</v>
       </c>
@@ -75728,7 +75728,7 @@
         <v>40.14</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="3">
         <v>2023</v>
       </c>
@@ -75748,7 +75748,7 @@
         <v>48.71</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="3">
         <v>2023</v>
       </c>
@@ -75768,7 +75768,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="3">
         <v>2023</v>
       </c>
@@ -75788,7 +75788,7 @@
         <v>43.34</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="3">
         <v>2023</v>
       </c>
@@ -75808,7 +75808,7 @@
         <v>48.81</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="3">
         <v>2023</v>
       </c>
@@ -75828,7 +75828,7 @@
         <v>36.64</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="3">
         <v>2023</v>
       </c>
@@ -75848,7 +75848,7 @@
         <v>43.97</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="3">
         <v>2023</v>
       </c>
@@ -75868,7 +75868,7 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="3">
         <v>2023</v>
       </c>
@@ -75888,7 +75888,7 @@
         <v>48.26</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="3">
         <v>2023</v>
       </c>
@@ -75908,7 +75908,7 @@
         <v>47.13</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="3">
         <v>2023</v>
       </c>
@@ -75928,7 +75928,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="3">
         <v>2023</v>
       </c>
@@ -75948,7 +75948,7 @@
         <v>62.91</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="3">
         <v>2024</v>
       </c>
@@ -75968,7 +75968,7 @@
         <v>58.23</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="3">
         <v>2024</v>
       </c>
@@ -75988,7 +75988,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="3">
         <v>2024</v>
       </c>
@@ -76008,7 +76008,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="3">
         <v>2024</v>
       </c>
@@ -76028,7 +76028,7 @@
         <v>56.57</v>
       </c>
     </row>
-    <row r="767" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="3">
         <v>2024</v>
       </c>
@@ -76048,7 +76048,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="3">
         <v>2024</v>
       </c>
@@ -76068,7 +76068,7 @@
         <v>56.07</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="3">
         <v>2024</v>
       </c>
@@ -76088,7 +76088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="3">
         <v>2024</v>
       </c>
@@ -76108,7 +76108,7 @@
         <v>71.94</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="3">
         <v>2024</v>
       </c>
@@ -76128,7 +76128,7 @@
         <v>67.89</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="3">
         <v>2024</v>
       </c>
@@ -76148,7 +76148,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="3">
         <v>2024</v>
       </c>
@@ -76168,7 +76168,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="3">
         <v>2024</v>
       </c>
@@ -76188,7 +76188,7 @@
         <v>62.04</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="3">
         <v>2024</v>
       </c>
@@ -76208,7 +76208,7 @@
         <v>49.63</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="3">
         <v>2024</v>
       </c>
@@ -76228,7 +76228,7 @@
         <v>66.48</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="3">
         <v>2024</v>
       </c>
@@ -76248,7 +76248,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="3">
         <v>2024</v>
       </c>
@@ -76268,7 +76268,7 @@
         <v>91.81</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="3">
         <v>2024</v>
       </c>
@@ -76288,7 +76288,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="3">
         <v>2024</v>
       </c>
@@ -76308,7 +76308,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="3">
         <v>2024</v>
       </c>
@@ -76328,7 +76328,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="3">
         <v>2024</v>
       </c>
@@ -76348,7 +76348,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="3">
         <v>2024</v>
       </c>
@@ -76368,7 +76368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="3">
         <v>2024</v>
       </c>
@@ -76388,7 +76388,7 @@
         <v>55.34</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="3">
         <v>2024</v>
       </c>
@@ -76408,7 +76408,7 @@
         <v>64.03</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="3">
         <v>2024</v>
       </c>
@@ -76428,7 +76428,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="3">
         <v>2024</v>
       </c>
@@ -76448,7 +76448,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="3">
         <v>2024</v>
       </c>
@@ -76468,7 +76468,7 @@
         <v>78.319999999999993</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="3">
         <v>2024</v>
       </c>
@@ -76488,7 +76488,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="3">
         <v>2024</v>
       </c>
@@ -76508,7 +76508,7 @@
         <v>83.98</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="3">
         <v>2024</v>
       </c>
@@ -76528,7 +76528,7 @@
         <v>42.33</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="3">
         <v>2024</v>
       </c>
@@ -76548,7 +76548,7 @@
         <v>50.17</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="3">
         <v>2024</v>
       </c>
@@ -76568,7 +76568,7 @@
         <v>52.35</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="3">
         <v>2024</v>
       </c>
@@ -76588,7 +76588,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="3">
         <v>2024</v>
       </c>
@@ -76608,7 +76608,7 @@
         <v>50.69</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="3">
         <v>2024</v>
       </c>
@@ -76628,7 +76628,7 @@
         <v>38.369999999999997</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="3">
         <v>2024</v>
       </c>
@@ -76648,7 +76648,7 @@
         <v>44.67</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="3">
         <v>2024</v>
       </c>
@@ -76668,7 +76668,7 @@
         <v>42.66</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="3">
         <v>2024</v>
       </c>
@@ -76688,7 +76688,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="3">
         <v>2024</v>
       </c>
@@ -76708,7 +76708,7 @@
         <v>49.06</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="3">
         <v>2024</v>
       </c>
@@ -76728,7 +76728,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="3">
         <v>2024</v>
       </c>
@@ -76748,7 +76748,7 @@
         <v>63.06</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="3">
         <v>2025</v>
       </c>
@@ -76768,7 +76768,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="3">
         <v>2025</v>
       </c>
@@ -76788,7 +76788,7 @@
         <v>74.77</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="3">
         <v>2025</v>
       </c>
@@ -76808,7 +76808,7 @@
         <v>43.58</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="3">
         <v>2025</v>
       </c>
@@ -76828,7 +76828,7 @@
         <v>57.76</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="3">
         <v>2025</v>
       </c>
@@ -76848,7 +76848,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="3">
         <v>2025</v>
       </c>
@@ -76868,7 +76868,7 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="3">
         <v>2025</v>
       </c>
@@ -76888,7 +76888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="3">
         <v>2025</v>
       </c>
@@ -76908,7 +76908,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="3">
         <v>2025</v>
       </c>
@@ -76928,7 +76928,7 @@
         <v>69.77</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="3">
         <v>2025</v>
       </c>
@@ -76948,7 +76948,7 @@
         <v>60.24</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="3">
         <v>2025</v>
       </c>
@@ -76968,7 +76968,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="3">
         <v>2025</v>
       </c>
@@ -76988,7 +76988,7 @@
         <v>65.83</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="3">
         <v>2025</v>
       </c>
@@ -77008,7 +77008,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="3">
         <v>2025</v>
       </c>
@@ -77028,7 +77028,7 @@
         <v>68.12</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="3">
         <v>2025</v>
       </c>
@@ -77048,7 +77048,7 @@
         <v>57.48</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="3">
         <v>2025</v>
       </c>
@@ -77068,7 +77068,7 @@
         <v>92.14</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="3">
         <v>2025</v>
       </c>
@@ -77088,7 +77088,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="3">
         <v>2025</v>
       </c>
@@ -77108,7 +77108,7 @@
         <v>66.53</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="3">
         <v>2025</v>
       </c>
@@ -77128,7 +77128,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="3">
         <v>2025</v>
       </c>
@@ -77148,7 +77148,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="3">
         <v>2025</v>
       </c>
@@ -77168,7 +77168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="3">
         <v>2025</v>
       </c>
@@ -77188,7 +77188,7 @@
         <v>55.07</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="3">
         <v>2025</v>
       </c>
@@ -77208,7 +77208,7 @@
         <v>66.760000000000005</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="3">
         <v>2025</v>
       </c>
@@ -77228,7 +77228,7 @@
         <v>57.54</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="3">
         <v>2025</v>
       </c>
@@ -77248,7 +77248,7 @@
         <v>69.47</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="3">
         <v>2025</v>
       </c>
@@ -77268,7 +77268,7 @@
         <v>79.47</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="3">
         <v>2025</v>
       </c>
@@ -77288,7 +77288,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="3">
         <v>2025</v>
       </c>
@@ -77308,7 +77308,7 @@
         <v>83.94</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="3">
         <v>2025</v>
       </c>
@@ -77328,7 +77328,7 @@
         <v>45.37</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="3">
         <v>2025</v>
       </c>
@@ -77348,7 +77348,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="3">
         <v>2025</v>
       </c>
@@ -77368,7 +77368,7 @@
         <v>54.73</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="3">
         <v>2025</v>
       </c>
@@ -77388,7 +77388,7 @@
         <v>50.03</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="3">
         <v>2025</v>
       </c>
@@ -77408,7 +77408,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="3">
         <v>2025</v>
       </c>
@@ -77428,7 +77428,7 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="3">
         <v>2025</v>
       </c>
@@ -77448,7 +77448,7 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="3">
         <v>2025</v>
       </c>
@@ -77468,7 +77468,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="3">
         <v>2025</v>
       </c>
@@ -77488,7 +77488,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="3">
         <v>2025</v>
       </c>
@@ -77508,7 +77508,7 @@
         <v>51.57</v>
       </c>
     </row>
-    <row r="841" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="3">
         <v>2025</v>
       </c>
@@ -77528,7 +77528,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="3">
         <v>2025</v>
       </c>
@@ -77548,7 +77548,7 @@
         <v>63.12</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="3">
         <v>2026</v>
       </c>
@@ -77568,7 +77568,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="3">
         <v>2026</v>
       </c>
@@ -77588,7 +77588,7 @@
         <v>77.36</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="3">
         <v>2026</v>
       </c>
@@ -77608,7 +77608,7 @@
         <v>46.44</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="3">
         <v>2026</v>
       </c>
@@ -77628,7 +77628,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="3">
         <v>2026</v>
       </c>
@@ -77648,7 +77648,7 @@
         <v>70.75</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="3">
         <v>2026</v>
       </c>
@@ -77668,7 +77668,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="3">
         <v>2026</v>
       </c>
@@ -77688,7 +77688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="3">
         <v>2026</v>
       </c>
@@ -77708,7 +77708,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="3">
         <v>2026</v>
       </c>
@@ -77728,7 +77728,7 @@
         <v>71.59</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="3">
         <v>2026</v>
       </c>
@@ -77748,7 +77748,7 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="3">
         <v>2026</v>
       </c>
@@ -77768,7 +77768,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="3">
         <v>2026</v>
       </c>
@@ -77788,7 +77788,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="3">
         <v>2026</v>
       </c>
@@ -77808,7 +77808,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="3">
         <v>2026</v>
       </c>
@@ -77828,7 +77828,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="3">
         <v>2026</v>
       </c>
@@ -77848,7 +77848,7 @@
         <v>59.18</v>
       </c>
     </row>
-    <row r="858" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="3">
         <v>2026</v>
       </c>
@@ -77868,7 +77868,7 @@
         <v>92.61</v>
       </c>
     </row>
-    <row r="859" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="3">
         <v>2026</v>
       </c>
@@ -77888,7 +77888,7 @@
         <v>58.61</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="3">
         <v>2026</v>
       </c>
@@ -77908,7 +77908,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="3">
         <v>2026</v>
       </c>
@@ -77928,7 +77928,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="3">
         <v>2026</v>
       </c>
@@ -77948,7 +77948,7 @@
         <v>56.61</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="3">
         <v>2026</v>
       </c>
@@ -77968,7 +77968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="3">
         <v>2026</v>
       </c>
@@ -77988,7 +77988,7 @@
         <v>55.47</v>
       </c>
     </row>
-    <row r="865" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="3">
         <v>2026</v>
       </c>
@@ -78008,7 +78008,7 @@
         <v>69.459999999999994</v>
       </c>
     </row>
-    <row r="866" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="3">
         <v>2026</v>
       </c>
@@ -78028,7 +78028,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="3">
         <v>2026</v>
       </c>
@@ -78048,7 +78048,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="868" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="3">
         <v>2026</v>
       </c>
@@ -78068,7 +78068,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="3">
         <v>2026</v>
       </c>
@@ -78088,7 +78088,7 @@
         <v>63.67</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="3">
         <v>2026</v>
       </c>
@@ -78108,7 +78108,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="3">
         <v>2026</v>
       </c>
@@ -78128,7 +78128,7 @@
         <v>47.14</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="3">
         <v>2026</v>
       </c>
@@ -78148,7 +78148,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="873" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="3">
         <v>2026</v>
       </c>
@@ -78168,7 +78168,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="3">
         <v>2026</v>
       </c>
@@ -78188,7 +78188,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="3">
         <v>2026</v>
       </c>
@@ -78208,7 +78208,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="3">
         <v>2026</v>
       </c>
@@ -78228,7 +78228,7 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="3">
         <v>2026</v>
       </c>
@@ -78248,7 +78248,7 @@
         <v>47.71</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="3">
         <v>2026</v>
       </c>
@@ -78268,7 +78268,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="3">
         <v>2026</v>
       </c>
@@ -78288,7 +78288,7 @@
         <v>56.16</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="3">
         <v>2026</v>
       </c>
@@ -78308,7 +78308,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="3">
         <v>2026</v>
       </c>
@@ -78328,7 +78328,7 @@
         <v>62.52</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="3">
         <v>2026</v>
       </c>
@@ -78348,7 +78348,7 @@
         <v>63.74</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="3">
         <v>2027</v>
       </c>
@@ -78368,7 +78368,7 @@
         <v>59.64</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="3">
         <v>2027</v>
       </c>
@@ -78388,7 +78388,7 @@
         <v>79.27</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="3">
         <v>2027</v>
       </c>
@@ -78408,7 +78408,7 @@
         <v>48.69</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="3">
         <v>2027</v>
       </c>
@@ -78428,7 +78428,7 @@
         <v>60.59</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="3">
         <v>2027</v>
       </c>
@@ -78448,7 +78448,7 @@
         <v>74.03</v>
       </c>
     </row>
-    <row r="888" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="3">
         <v>2027</v>
       </c>
@@ -78468,7 +78468,7 @@
         <v>60.15</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="3">
         <v>2027</v>
       </c>
@@ -78488,7 +78488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="3">
         <v>2027</v>
       </c>
@@ -78508,7 +78508,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="891" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="3">
         <v>2027</v>
       </c>
@@ -78528,7 +78528,7 @@
         <v>72.88</v>
       </c>
     </row>
-    <row r="892" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="3">
         <v>2027</v>
       </c>
@@ -78548,7 +78548,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="3">
         <v>2027</v>
       </c>
@@ -78568,7 +78568,7 @@
         <v>56.14</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="3">
         <v>2027</v>
       </c>
@@ -78588,7 +78588,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="3">
         <v>2027</v>
       </c>
@@ -78608,7 +78608,7 @@
         <v>56.42</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="3">
         <v>2027</v>
       </c>
@@ -78628,7 +78628,7 @@
         <v>70.67</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="3">
         <v>2027</v>
       </c>
@@ -78648,7 +78648,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="3">
         <v>2027</v>
       </c>
@@ -78668,7 +78668,7 @@
         <v>92.87</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="3">
         <v>2027</v>
       </c>
@@ -78688,7 +78688,7 @@
         <v>60.23</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="3">
         <v>2027</v>
       </c>
@@ -78708,7 +78708,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="3">
         <v>2027</v>
       </c>
@@ -78728,7 +78728,7 @@
         <v>61.13</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="3">
         <v>2027</v>
       </c>
@@ -78748,7 +78748,7 @@
         <v>57.75</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="3">
         <v>2027</v>
       </c>
@@ -78768,7 +78768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="3">
         <v>2027</v>
       </c>
@@ -78788,7 +78788,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="3">
         <v>2027</v>
       </c>
@@ -78808,7 +78808,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="906" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="3">
         <v>2027</v>
       </c>
@@ -78828,7 +78828,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="907" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="3">
         <v>2027</v>
       </c>
@@ -78848,7 +78848,7 @@
         <v>70.41</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="3">
         <v>2027</v>
       </c>
@@ -78868,7 +78868,7 @@
         <v>81.319999999999993</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="3">
         <v>2027</v>
       </c>
@@ -78888,7 +78888,7 @@
         <v>65.38</v>
       </c>
     </row>
-    <row r="910" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="3">
         <v>2027</v>
       </c>
@@ -78908,7 +78908,7 @@
         <v>84.07</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="3">
         <v>2027</v>
       </c>
@@ -78928,7 +78928,7 @@
         <v>48.32</v>
       </c>
     </row>
-    <row r="912" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="3">
         <v>2027</v>
       </c>
@@ -78948,7 +78948,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="913" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="3">
         <v>2027</v>
       </c>
@@ -78968,7 +78968,7 @@
         <v>58.53</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="3">
         <v>2027</v>
       </c>
@@ -78988,7 +78988,7 @@
         <v>54.44</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="3">
         <v>2027</v>
       </c>
@@ -79008,7 +79008,7 @@
         <v>54.91</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="3">
         <v>2027</v>
       </c>
@@ -79028,7 +79028,7 @@
         <v>45.85</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="3">
         <v>2027</v>
       </c>
@@ -79048,7 +79048,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="3">
         <v>2027</v>
       </c>
@@ -79068,7 +79068,7 @@
         <v>48.97</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="3">
         <v>2027</v>
       </c>
@@ -79088,7 +79088,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="3">
         <v>2027</v>
       </c>
@@ -79108,7 +79108,7 @@
         <v>54.97</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="3">
         <v>2027</v>
       </c>
@@ -79128,7 +79128,7 @@
         <v>63.41</v>
       </c>
     </row>
-    <row r="922" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="3">
         <v>2027</v>
       </c>
@@ -79149,14 +79149,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A922" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2,008"/>
-        <filter val="2,009"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A922" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/wit/web_region_bubble_MENA/travel_market_summary_old.xlsx
+++ b/wit/web_region_bubble_MENA/travel_market_summary_old.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bubble_MENA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bubble/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_61905BD133772EF7847BF89C4A7BC93DD8FADAC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEF3D453-6B3A-1E4E-AB83-DB7975914299}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_61905BD133772EF7847BF89C4A7BC93DD8FADAC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA3C6053-2D43-7C47-AA7C-39BF7022433E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60704,12 +60704,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F922"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
       <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
@@ -60742,7 +60742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>2005</v>
       </c>
@@ -60762,7 +60762,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2005</v>
       </c>
@@ -60782,7 +60782,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
@@ -60802,7 +60802,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2005</v>
       </c>
@@ -60822,7 +60822,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -60842,7 +60842,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>2005</v>
       </c>
@@ -60862,7 +60862,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>2005</v>
       </c>
@@ -60882,7 +60882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2005</v>
       </c>
@@ -60902,7 +60902,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2005</v>
       </c>
@@ -60922,7 +60922,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2005</v>
       </c>
@@ -60942,7 +60942,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>2005</v>
       </c>
@@ -60962,7 +60962,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>2005</v>
       </c>
@@ -60982,7 +60982,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>2005</v>
       </c>
@@ -61002,7 +61002,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>2005</v>
       </c>
@@ -61022,7 +61022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>2005</v>
       </c>
@@ -61042,7 +61042,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>2005</v>
       </c>
@@ -61062,7 +61062,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>2005</v>
       </c>
@@ -61082,7 +61082,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2005</v>
       </c>
@@ -61102,7 +61102,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>2005</v>
       </c>
@@ -61122,7 +61122,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>2005</v>
       </c>
@@ -61142,7 +61142,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>2005</v>
       </c>
@@ -61162,7 +61162,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>2005</v>
       </c>
@@ -61182,7 +61182,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>2005</v>
       </c>
@@ -61202,7 +61202,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>2005</v>
       </c>
@@ -61222,7 +61222,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>2005</v>
       </c>
@@ -61242,7 +61242,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>2005</v>
       </c>
@@ -61262,7 +61262,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>2005</v>
       </c>
@@ -61282,7 +61282,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>2005</v>
       </c>
@@ -61302,7 +61302,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>2005</v>
       </c>
@@ -61322,7 +61322,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>2005</v>
       </c>
@@ -61342,7 +61342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2005</v>
       </c>
@@ -61362,7 +61362,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>2005</v>
       </c>
@@ -61382,7 +61382,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>2005</v>
       </c>
@@ -61402,7 +61402,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>2005</v>
       </c>
@@ -61422,7 +61422,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>2005</v>
       </c>
@@ -61442,7 +61442,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>2005</v>
       </c>
@@ -61462,7 +61462,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>2005</v>
       </c>
@@ -61482,7 +61482,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>2005</v>
       </c>
@@ -61502,7 +61502,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>2005</v>
       </c>
@@ -61522,7 +61522,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>2005</v>
       </c>
@@ -61542,7 +61542,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>2006</v>
       </c>
@@ -61562,7 +61562,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>2006</v>
       </c>
@@ -61582,7 +61582,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>2006</v>
       </c>
@@ -61602,7 +61602,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>2006</v>
       </c>
@@ -61622,7 +61622,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>2006</v>
       </c>
@@ -61642,7 +61642,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>2006</v>
       </c>
@@ -61662,7 +61662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>2006</v>
       </c>
@@ -61682,7 +61682,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>2006</v>
       </c>
@@ -61702,7 +61702,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>2006</v>
       </c>
@@ -61722,7 +61722,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>2006</v>
       </c>
@@ -61742,7 +61742,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>2006</v>
       </c>
@@ -61762,7 +61762,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>2006</v>
       </c>
@@ -61782,7 +61782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>2006</v>
       </c>
@@ -61802,7 +61802,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>2006</v>
       </c>
@@ -61822,7 +61822,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>2006</v>
       </c>
@@ -61842,7 +61842,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>2006</v>
       </c>
@@ -61862,7 +61862,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>2006</v>
       </c>
@@ -61882,7 +61882,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>2006</v>
       </c>
@@ -61902,7 +61902,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>2006</v>
       </c>
@@ -61922,7 +61922,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>2006</v>
       </c>
@@ -61942,7 +61942,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>2006</v>
       </c>
@@ -61962,7 +61962,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>2006</v>
       </c>
@@ -61982,7 +61982,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>2006</v>
       </c>
@@ -62002,7 +62002,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>2006</v>
       </c>
@@ -62022,7 +62022,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>2006</v>
       </c>
@@ -62042,7 +62042,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>2006</v>
       </c>
@@ -62062,7 +62062,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>2006</v>
       </c>
@@ -62082,7 +62082,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>2006</v>
       </c>
@@ -62102,7 +62102,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>2006</v>
       </c>
@@ -62122,7 +62122,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>2006</v>
       </c>
@@ -62142,7 +62142,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>2006</v>
       </c>
@@ -62162,7 +62162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>2006</v>
       </c>
@@ -62182,7 +62182,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>2006</v>
       </c>
@@ -62202,7 +62202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>2006</v>
       </c>
@@ -62222,7 +62222,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>2006</v>
       </c>
@@ -62242,7 +62242,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>2006</v>
       </c>
@@ -62262,7 +62262,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>2006</v>
       </c>
@@ -62282,7 +62282,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>2006</v>
       </c>
@@ -62302,7 +62302,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>2006</v>
       </c>
@@ -62322,7 +62322,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>2006</v>
       </c>
@@ -62342,7 +62342,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>2007</v>
       </c>
@@ -62362,7 +62362,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>2007</v>
       </c>
@@ -62382,7 +62382,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>2007</v>
       </c>
@@ -62402,7 +62402,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>2007</v>
       </c>
@@ -62422,7 +62422,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>2007</v>
       </c>
@@ -62442,7 +62442,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>2007</v>
       </c>
@@ -62462,7 +62462,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>2007</v>
       </c>
@@ -62482,7 +62482,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>2007</v>
       </c>
@@ -62502,7 +62502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>2007</v>
       </c>
@@ -62522,7 +62522,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>2007</v>
       </c>
@@ -62542,7 +62542,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>2007</v>
       </c>
@@ -62562,7 +62562,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>2007</v>
       </c>
@@ -62582,7 +62582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>2007</v>
       </c>
@@ -62602,7 +62602,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>2007</v>
       </c>
@@ -62622,7 +62622,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>2007</v>
       </c>
@@ -62642,7 +62642,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>2007</v>
       </c>
@@ -62662,7 +62662,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>2007</v>
       </c>
@@ -62682,7 +62682,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>2007</v>
       </c>
@@ -62702,7 +62702,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>2007</v>
       </c>
@@ -62722,7 +62722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>2007</v>
       </c>
@@ -62742,7 +62742,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>2007</v>
       </c>
@@ -62762,7 +62762,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>2007</v>
       </c>
@@ -62782,7 +62782,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>2007</v>
       </c>
@@ -62802,7 +62802,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>2007</v>
       </c>
@@ -62822,7 +62822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>2007</v>
       </c>
@@ -62842,7 +62842,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>2007</v>
       </c>
@@ -62862,7 +62862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>2007</v>
       </c>
@@ -62882,7 +62882,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>2007</v>
       </c>
@@ -62902,7 +62902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>2007</v>
       </c>
@@ -62922,7 +62922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>2007</v>
       </c>
@@ -62942,7 +62942,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>2007</v>
       </c>
@@ -62962,7 +62962,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>2007</v>
       </c>
@@ -62982,7 +62982,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>2007</v>
       </c>
@@ -63002,7 +63002,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>2007</v>
       </c>
@@ -63022,7 +63022,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>2007</v>
       </c>
@@ -63042,7 +63042,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>2007</v>
       </c>
@@ -63062,7 +63062,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>2007</v>
       </c>
@@ -63082,7 +63082,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>2007</v>
       </c>
@@ -63102,7 +63102,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>2007</v>
       </c>
@@ -63122,7 +63122,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>2007</v>
       </c>
@@ -63942,7 +63942,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -64748,7 +64748,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>2010</v>
       </c>
@@ -64768,7 +64768,7 @@
         <v>32.65</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>2010</v>
       </c>
@@ -64788,7 +64788,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>2010</v>
       </c>
@@ -64808,7 +64808,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>2010</v>
       </c>
@@ -64828,7 +64828,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>2010</v>
       </c>
@@ -64848,7 +64848,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>2010</v>
       </c>
@@ -64868,7 +64868,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>2010</v>
       </c>
@@ -64888,7 +64888,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>2010</v>
       </c>
@@ -64908,7 +64908,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>2010</v>
       </c>
@@ -64928,7 +64928,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>2010</v>
       </c>
@@ -64948,7 +64948,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>2010</v>
       </c>
@@ -64968,7 +64968,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>2010</v>
       </c>
@@ -64988,7 +64988,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>2010</v>
       </c>
@@ -65008,7 +65008,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>2010</v>
       </c>
@@ -65028,7 +65028,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>2010</v>
       </c>
@@ -65048,7 +65048,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>2010</v>
       </c>
@@ -65068,7 +65068,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>2010</v>
       </c>
@@ -65088,7 +65088,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>2010</v>
       </c>
@@ -65108,7 +65108,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>2010</v>
       </c>
@@ -65128,7 +65128,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>2010</v>
       </c>
@@ -65148,7 +65148,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>2010</v>
       </c>
@@ -65168,7 +65168,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>2010</v>
       </c>
@@ -65188,7 +65188,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>2010</v>
       </c>
@@ -65208,7 +65208,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>2010</v>
       </c>
@@ -65228,7 +65228,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>2010</v>
       </c>
@@ -65248,7 +65248,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>2010</v>
       </c>
@@ -65268,7 +65268,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>2010</v>
       </c>
@@ -65288,7 +65288,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>2010</v>
       </c>
@@ -65308,7 +65308,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>2010</v>
       </c>
@@ -65328,7 +65328,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>2010</v>
       </c>
@@ -65348,7 +65348,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>2010</v>
       </c>
@@ -65368,7 +65368,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>2010</v>
       </c>
@@ -65388,7 +65388,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>2010</v>
       </c>
@@ -65408,7 +65408,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>2010</v>
       </c>
@@ -65428,7 +65428,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>2010</v>
       </c>
@@ -65448,7 +65448,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>2010</v>
       </c>
@@ -65468,7 +65468,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>2010</v>
       </c>
@@ -65488,7 +65488,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>2010</v>
       </c>
@@ -65508,7 +65508,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>2010</v>
       </c>
@@ -65528,7 +65528,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>2010</v>
       </c>
@@ -65548,7 +65548,7 @@
         <v>39.26</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>2011</v>
       </c>
@@ -65568,7 +65568,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>2011</v>
       </c>
@@ -65588,7 +65588,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>2011</v>
       </c>
@@ -65608,7 +65608,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>2011</v>
       </c>
@@ -65628,7 +65628,7 @@
         <v>27.33</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>2011</v>
       </c>
@@ -65648,7 +65648,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>2011</v>
       </c>
@@ -65668,7 +65668,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>2011</v>
       </c>
@@ -65688,7 +65688,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>2011</v>
       </c>
@@ -65708,7 +65708,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>2011</v>
       </c>
@@ -65728,7 +65728,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>2011</v>
       </c>
@@ -65748,7 +65748,7 @@
         <v>16.59</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>2011</v>
       </c>
@@ -65768,7 +65768,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>2011</v>
       </c>
@@ -65788,7 +65788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>2011</v>
       </c>
@@ -65808,7 +65808,7 @@
         <v>13.73</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>2011</v>
       </c>
@@ -65828,7 +65828,7 @@
         <v>22.91</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>2011</v>
       </c>
@@ -65848,7 +65848,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>2011</v>
       </c>
@@ -65868,7 +65868,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>2011</v>
       </c>
@@ -65888,7 +65888,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>2011</v>
       </c>
@@ -65908,7 +65908,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>2011</v>
       </c>
@@ -65928,7 +65928,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>2011</v>
       </c>
@@ -65948,7 +65948,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>2011</v>
       </c>
@@ -65968,7 +65968,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>2011</v>
       </c>
@@ -65988,7 +65988,7 @@
         <v>34.04</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>2011</v>
       </c>
@@ -66008,7 +66008,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>2011</v>
       </c>
@@ -66028,7 +66028,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>2011</v>
       </c>
@@ -66048,7 +66048,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>2011</v>
       </c>
@@ -66068,7 +66068,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>2011</v>
       </c>
@@ -66088,7 +66088,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>2011</v>
       </c>
@@ -66108,7 +66108,7 @@
         <v>49.79</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>2011</v>
       </c>
@@ -66128,7 +66128,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>2011</v>
       </c>
@@ -66148,7 +66148,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>2011</v>
       </c>
@@ -66168,7 +66168,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>2011</v>
       </c>
@@ -66188,7 +66188,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>2011</v>
       </c>
@@ -66208,7 +66208,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>2011</v>
       </c>
@@ -66228,7 +66228,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>2011</v>
       </c>
@@ -66248,7 +66248,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>2011</v>
       </c>
@@ -66268,7 +66268,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>2011</v>
       </c>
@@ -66288,7 +66288,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>2011</v>
       </c>
@@ -66308,7 +66308,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>2011</v>
       </c>
@@ -66328,7 +66328,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>2011</v>
       </c>
@@ -66348,7 +66348,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>2012</v>
       </c>
@@ -66368,7 +66368,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>2012</v>
       </c>
@@ -66388,7 +66388,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>2012</v>
       </c>
@@ -66408,7 +66408,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>2012</v>
       </c>
@@ -66428,7 +66428,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>2012</v>
       </c>
@@ -66448,7 +66448,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>2012</v>
       </c>
@@ -66468,7 +66468,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>2012</v>
       </c>
@@ -66488,7 +66488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>2012</v>
       </c>
@@ -66508,7 +66508,7 @@
         <v>30.93</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>2012</v>
       </c>
@@ -66528,7 +66528,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>2012</v>
       </c>
@@ -66548,7 +66548,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>2012</v>
       </c>
@@ -66568,7 +66568,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>2012</v>
       </c>
@@ -66588,7 +66588,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>2012</v>
       </c>
@@ -66608,7 +66608,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>2012</v>
       </c>
@@ -66628,7 +66628,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>2012</v>
       </c>
@@ -66648,7 +66648,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>2012</v>
       </c>
@@ -66668,7 +66668,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>2012</v>
       </c>
@@ -66688,7 +66688,7 @@
         <v>23.26</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>2012</v>
       </c>
@@ -66708,7 +66708,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>2012</v>
       </c>
@@ -66728,7 +66728,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>2012</v>
       </c>
@@ -66748,7 +66748,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>2012</v>
       </c>
@@ -66768,7 +66768,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>2012</v>
       </c>
@@ -66788,7 +66788,7 @@
         <v>35.96</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>2012</v>
       </c>
@@ -66808,7 +66808,7 @@
         <v>33.729999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>2012</v>
       </c>
@@ -66828,7 +66828,7 @@
         <v>28.17</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>2012</v>
       </c>
@@ -66848,7 +66848,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>2012</v>
       </c>
@@ -66868,7 +66868,7 @@
         <v>50.83</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>2012</v>
       </c>
@@ -66888,7 +66888,7 @@
         <v>33.479999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>2012</v>
       </c>
@@ -66908,7 +66908,7 @@
         <v>48.09</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>2012</v>
       </c>
@@ -66928,7 +66928,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>2012</v>
       </c>
@@ -66948,7 +66948,7 @@
         <v>19.760000000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>2012</v>
       </c>
@@ -66968,7 +66968,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>2012</v>
       </c>
@@ -66988,7 +66988,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>2012</v>
       </c>
@@ -67008,7 +67008,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>2012</v>
       </c>
@@ -67028,7 +67028,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>2012</v>
       </c>
@@ -67048,7 +67048,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>2012</v>
       </c>
@@ -67068,7 +67068,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>2012</v>
       </c>
@@ -67088,7 +67088,7 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>2012</v>
       </c>
@@ -67108,7 +67108,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>2012</v>
       </c>
@@ -67128,7 +67128,7 @@
         <v>35.61</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>2012</v>
       </c>
@@ -67148,7 +67148,7 @@
         <v>41.32</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>2013</v>
       </c>
@@ -67168,7 +67168,7 @@
         <v>37.07</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>2013</v>
       </c>
@@ -67188,7 +67188,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>2013</v>
       </c>
@@ -67208,7 +67208,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>2013</v>
       </c>
@@ -67228,7 +67228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>2013</v>
       </c>
@@ -67248,7 +67248,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>2013</v>
       </c>
@@ -67268,7 +67268,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>2013</v>
       </c>
@@ -67288,7 +67288,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>2013</v>
       </c>
@@ -67308,7 +67308,7 @@
         <v>34.36</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>2013</v>
       </c>
@@ -67328,7 +67328,7 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>2013</v>
       </c>
@@ -67348,7 +67348,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>2013</v>
       </c>
@@ -67368,7 +67368,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>2013</v>
       </c>
@@ -67388,7 +67388,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>2013</v>
       </c>
@@ -67408,7 +67408,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>2013</v>
       </c>
@@ -67428,7 +67428,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>2013</v>
       </c>
@@ -67448,7 +67448,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>2013</v>
       </c>
@@ -67468,7 +67468,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>2013</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>2013</v>
       </c>
@@ -67508,7 +67508,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>2013</v>
       </c>
@@ -67528,7 +67528,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>2013</v>
       </c>
@@ -67548,7 +67548,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>2013</v>
       </c>
@@ -67568,7 +67568,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>2013</v>
       </c>
@@ -67588,7 +67588,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>2013</v>
       </c>
@@ -67608,7 +67608,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>2013</v>
       </c>
@@ -67628,7 +67628,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>2013</v>
       </c>
@@ -67648,7 +67648,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>2013</v>
       </c>
@@ -67668,7 +67668,7 @@
         <v>52.43</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>2013</v>
       </c>
@@ -67688,7 +67688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>2013</v>
       </c>
@@ -67708,7 +67708,7 @@
         <v>49.33</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>2013</v>
       </c>
@@ -67728,7 +67728,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>2013</v>
       </c>
@@ -67748,7 +67748,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>2013</v>
       </c>
@@ -67768,7 +67768,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>2013</v>
       </c>
@@ -67788,7 +67788,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>2013</v>
       </c>
@@ -67808,7 +67808,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>2013</v>
       </c>
@@ -67828,7 +67828,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>2013</v>
       </c>
@@ -67848,7 +67848,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>2013</v>
       </c>
@@ -67868,7 +67868,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>2013</v>
       </c>
@@ -67888,7 +67888,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>2013</v>
       </c>
@@ -67908,7 +67908,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>2013</v>
       </c>
@@ -67928,7 +67928,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>2013</v>
       </c>
@@ -67948,7 +67948,7 @@
         <v>43.04</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>2014</v>
       </c>
@@ -67968,7 +67968,7 @@
         <v>37.89</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>2014</v>
       </c>
@@ -67988,7 +67988,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>2014</v>
       </c>
@@ -68008,7 +68008,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>2014</v>
       </c>
@@ -68028,7 +68028,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>2014</v>
       </c>
@@ -68048,7 +68048,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>2014</v>
       </c>
@@ -68068,7 +68068,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>2014</v>
       </c>
@@ -68088,7 +68088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>2014</v>
       </c>
@@ -68108,7 +68108,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>2014</v>
       </c>
@@ -68128,7 +68128,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>2014</v>
       </c>
@@ -68148,7 +68148,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>2014</v>
       </c>
@@ -68168,7 +68168,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>2014</v>
       </c>
@@ -68188,7 +68188,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>2014</v>
       </c>
@@ -68208,7 +68208,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>2014</v>
       </c>
@@ -68228,7 +68228,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>2014</v>
       </c>
@@ -68248,7 +68248,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>2014</v>
       </c>
@@ -68268,7 +68268,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>2014</v>
       </c>
@@ -68288,7 +68288,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>2014</v>
       </c>
@@ -68308,7 +68308,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>2014</v>
       </c>
@@ -68328,7 +68328,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>2014</v>
       </c>
@@ -68348,7 +68348,7 @@
         <v>24.46</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>2014</v>
       </c>
@@ -68368,7 +68368,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>2014</v>
       </c>
@@ -68388,7 +68388,7 @@
         <v>36.92</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>2014</v>
       </c>
@@ -68408,7 +68408,7 @@
         <v>37.380000000000003</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>2014</v>
       </c>
@@ -68428,7 +68428,7 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>2014</v>
       </c>
@@ -68448,7 +68448,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>2014</v>
       </c>
@@ -68468,7 +68468,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>2014</v>
       </c>
@@ -68488,7 +68488,7 @@
         <v>40.01</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>2014</v>
       </c>
@@ -68508,7 +68508,7 @@
         <v>53.85</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>2014</v>
       </c>
@@ -68528,7 +68528,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>2014</v>
       </c>
@@ -68548,7 +68548,7 @@
         <v>26.08</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>2014</v>
       </c>
@@ -68568,7 +68568,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>2014</v>
       </c>
@@ -68588,7 +68588,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>2014</v>
       </c>
@@ -68608,7 +68608,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>2014</v>
       </c>
@@ -68628,7 +68628,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>2014</v>
       </c>
@@ -68648,7 +68648,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>2014</v>
       </c>
@@ -68668,7 +68668,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>2014</v>
       </c>
@@ -68688,7 +68688,7 @@
         <v>21.08</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>2014</v>
       </c>
@@ -68708,7 +68708,7 @@
         <v>27.86</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>2014</v>
       </c>
@@ -68728,7 +68728,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>2014</v>
       </c>
@@ -68748,7 +68748,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>2015</v>
       </c>
@@ -68768,7 +68768,7 @@
         <v>39.33</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>2015</v>
       </c>
@@ -68788,7 +68788,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>2015</v>
       </c>
@@ -68808,7 +68808,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>2015</v>
       </c>
@@ -68828,7 +68828,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>2015</v>
       </c>
@@ -68848,7 +68848,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>2015</v>
       </c>
@@ -68868,7 +68868,7 @@
         <v>36.44</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>2015</v>
       </c>
@@ -68888,7 +68888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>2015</v>
       </c>
@@ -68908,7 +68908,7 @@
         <v>35.94</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>2015</v>
       </c>
@@ -68928,7 +68928,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>2015</v>
       </c>
@@ -68948,7 +68948,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>2015</v>
       </c>
@@ -68968,7 +68968,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>2015</v>
       </c>
@@ -68988,7 +68988,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>2015</v>
       </c>
@@ -69008,7 +69008,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>2015</v>
       </c>
@@ -69028,7 +69028,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>2015</v>
       </c>
@@ -69048,7 +69048,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>2015</v>
       </c>
@@ -69068,7 +69068,7 @@
         <v>38.94</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>2015</v>
       </c>
@@ -69088,7 +69088,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>2015</v>
       </c>
@@ -69108,7 +69108,7 @@
         <v>35.21</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>2015</v>
       </c>
@@ -69128,7 +69128,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>2015</v>
       </c>
@@ -69148,7 +69148,7 @@
         <v>29.03</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>2015</v>
       </c>
@@ -69168,7 +69168,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>2015</v>
       </c>
@@ -69188,7 +69188,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>2015</v>
       </c>
@@ -69208,7 +69208,7 @@
         <v>38.54</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>2015</v>
       </c>
@@ -69228,7 +69228,7 @@
         <v>34.020000000000003</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>2015</v>
       </c>
@@ -69248,7 +69248,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>2015</v>
       </c>
@@ -69268,7 +69268,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>2015</v>
       </c>
@@ -69288,7 +69288,7 @@
         <v>41.72</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>2015</v>
       </c>
@@ -69308,7 +69308,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>2015</v>
       </c>
@@ -69328,7 +69328,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>2015</v>
       </c>
@@ -69348,7 +69348,7 @@
         <v>30.56</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>2015</v>
       </c>
@@ -69368,7 +69368,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
         <v>2015</v>
       </c>
@@ -69388,7 +69388,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
         <v>2015</v>
       </c>
@@ -69408,7 +69408,7 @@
         <v>29.36</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>2015</v>
       </c>
@@ -69428,7 +69428,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
         <v>2015</v>
       </c>
@@ -69448,7 +69448,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
         <v>2015</v>
       </c>
@@ -69468,7 +69468,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>2015</v>
       </c>
@@ -69488,7 +69488,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>2015</v>
       </c>
@@ -69508,7 +69508,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>2015</v>
       </c>
@@ -69528,7 +69528,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
         <v>2015</v>
       </c>
@@ -69548,7 +69548,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>2016</v>
       </c>
@@ -69568,7 +69568,7 @@
         <v>40.61</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>2016</v>
       </c>
@@ -69588,7 +69588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
         <v>2016</v>
       </c>
@@ -69608,7 +69608,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <v>2016</v>
       </c>
@@ -69628,7 +69628,7 @@
         <v>36.68</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>2016</v>
       </c>
@@ -69648,7 +69648,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
         <v>2016</v>
       </c>
@@ -69668,7 +69668,7 @@
         <v>38.08</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>2016</v>
       </c>
@@ -69688,7 +69688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>2016</v>
       </c>
@@ -69708,7 +69708,7 @@
         <v>40.06</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>2016</v>
       </c>
@@ -69728,7 +69728,7 @@
         <v>37.229999999999997</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
         <v>2016</v>
       </c>
@@ -69748,7 +69748,7 @@
         <v>34.01</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>2016</v>
       </c>
@@ -69768,7 +69768,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>2016</v>
       </c>
@@ -69788,7 +69788,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>2016</v>
       </c>
@@ -69808,7 +69808,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
         <v>2016</v>
       </c>
@@ -69828,7 +69828,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>2016</v>
       </c>
@@ -69848,7 +69848,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>2016</v>
       </c>
@@ -69868,7 +69868,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>2016</v>
       </c>
@@ -69888,7 +69888,7 @@
         <v>35.43</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>2016</v>
       </c>
@@ -69908,7 +69908,7 @@
         <v>39.67</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>2016</v>
       </c>
@@ -69928,7 +69928,7 @@
         <v>34.81</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
         <v>2016</v>
       </c>
@@ -69948,7 +69948,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>2016</v>
       </c>
@@ -69968,7 +69968,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
         <v>2016</v>
       </c>
@@ -69988,7 +69988,7 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>2016</v>
       </c>
@@ -70008,7 +70008,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
         <v>2016</v>
       </c>
@@ -70028,7 +70028,7 @@
         <v>35.979999999999997</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>2016</v>
       </c>
@@ -70048,7 +70048,7 @@
         <v>42.21</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>2016</v>
       </c>
@@ -70068,7 +70068,7 @@
         <v>52.57</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>2016</v>
       </c>
@@ -70088,7 +70088,7 @@
         <v>42.37</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>2016</v>
       </c>
@@ -70108,7 +70108,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>2016</v>
       </c>
@@ -70128,7 +70128,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>2016</v>
       </c>
@@ -70148,7 +70148,7 @@
         <v>34.840000000000003</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>2016</v>
       </c>
@@ -70168,7 +70168,7 @@
         <v>33.15</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>2016</v>
       </c>
@@ -70188,7 +70188,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>2016</v>
       </c>
@@ -70208,7 +70208,7 @@
         <v>31.22</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>2016</v>
       </c>
@@ -70228,7 +70228,7 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>2016</v>
       </c>
@@ -70248,7 +70248,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
         <v>2016</v>
       </c>
@@ -70268,7 +70268,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>2016</v>
       </c>
@@ -70288,7 +70288,7 @@
         <v>25.71</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
         <v>2016</v>
       </c>
@@ -70308,7 +70308,7 @@
         <v>31.21</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>2016</v>
       </c>
@@ -70328,7 +70328,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>2016</v>
       </c>
@@ -70348,7 +70348,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>2017</v>
       </c>
@@ -70368,7 +70368,7 @@
         <v>41.74</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>2017</v>
       </c>
@@ -70388,7 +70388,7 @@
         <v>44.52</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>2017</v>
       </c>
@@ -70408,7 +70408,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>2017</v>
       </c>
@@ -70428,7 +70428,7 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3">
         <v>2017</v>
       </c>
@@ -70448,7 +70448,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3">
         <v>2017</v>
       </c>
@@ -70468,7 +70468,7 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>2017</v>
       </c>
@@ -70488,7 +70488,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>2017</v>
       </c>
@@ -70508,7 +70508,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>2017</v>
       </c>
@@ -70528,7 +70528,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
         <v>2017</v>
       </c>
@@ -70548,7 +70548,7 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>2017</v>
       </c>
@@ -70568,7 +70568,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>2017</v>
       </c>
@@ -70588,7 +70588,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
         <v>2017</v>
       </c>
@@ -70608,7 +70608,7 @@
         <v>31.18</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="3">
         <v>2017</v>
       </c>
@@ -70628,7 +70628,7 @@
         <v>45.73</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
         <v>2017</v>
       </c>
@@ -70648,7 +70648,7 @@
         <v>28.04</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
         <v>2017</v>
       </c>
@@ -70668,7 +70668,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
         <v>2017</v>
       </c>
@@ -70688,7 +70688,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
         <v>2017</v>
       </c>
@@ -70708,7 +70708,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
         <v>2017</v>
       </c>
@@ -70728,7 +70728,7 @@
         <v>42.29</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>2017</v>
       </c>
@@ -70748,7 +70748,7 @@
         <v>35.57</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>2017</v>
       </c>
@@ -70768,7 +70768,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="3">
         <v>2017</v>
       </c>
@@ -70788,7 +70788,7 @@
         <v>43.09</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>2017</v>
       </c>
@@ -70808,7 +70808,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="3">
         <v>2017</v>
       </c>
@@ -70828,7 +70828,7 @@
         <v>37.549999999999997</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3">
         <v>2017</v>
       </c>
@@ -70848,7 +70848,7 @@
         <v>44.16</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="3">
         <v>2017</v>
       </c>
@@ -70868,7 +70868,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>2017</v>
       </c>
@@ -70888,7 +70888,7 @@
         <v>42.91</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>2017</v>
       </c>
@@ -70908,7 +70908,7 @@
         <v>61.23</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>2017</v>
       </c>
@@ -70928,7 +70928,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="3">
         <v>2017</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3">
         <v>2017</v>
       </c>
@@ -70968,7 +70968,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>2017</v>
       </c>
@@ -70988,7 +70988,7 @@
         <v>33.03</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>2017</v>
       </c>
@@ -71008,7 +71008,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="3">
         <v>2017</v>
       </c>
@@ -71028,7 +71028,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3">
         <v>2017</v>
       </c>
@@ -71048,7 +71048,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="3">
         <v>2017</v>
       </c>
@@ -71068,7 +71068,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3">
         <v>2017</v>
       </c>
@@ -71088,7 +71088,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="3">
         <v>2017</v>
       </c>
@@ -71108,7 +71108,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3">
         <v>2017</v>
       </c>
@@ -71128,7 +71128,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="3">
         <v>2017</v>
       </c>
@@ -71148,7 +71148,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3">
         <v>2018</v>
       </c>
@@ -71168,7 +71168,7 @@
         <v>43.54</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="3">
         <v>2018</v>
       </c>
@@ -71188,7 +71188,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3">
         <v>2018</v>
       </c>
@@ -71208,7 +71208,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="3">
         <v>2018</v>
       </c>
@@ -71228,7 +71228,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3">
         <v>2018</v>
       </c>
@@ -71248,7 +71248,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3">
         <v>2018</v>
       </c>
@@ -71268,7 +71268,7 @@
         <v>42.09</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3">
         <v>2018</v>
       </c>
@@ -71288,7 +71288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="3">
         <v>2018</v>
       </c>
@@ -71308,7 +71308,7 @@
         <v>40.770000000000003</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3">
         <v>2018</v>
       </c>
@@ -71328,7 +71328,7 @@
         <v>42.11</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="3">
         <v>2018</v>
       </c>
@@ -71348,7 +71348,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3">
         <v>2018</v>
       </c>
@@ -71368,7 +71368,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="3">
         <v>2018</v>
       </c>
@@ -71388,7 +71388,7 @@
         <v>35.32</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3">
         <v>2018</v>
       </c>
@@ -71408,7 +71408,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="3">
         <v>2018</v>
       </c>
@@ -71428,7 +71428,7 @@
         <v>51.61</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3">
         <v>2018</v>
       </c>
@@ -71448,7 +71448,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="3">
         <v>2018</v>
       </c>
@@ -71468,7 +71468,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3">
         <v>2018</v>
       </c>
@@ -71488,7 +71488,7 @@
         <v>38.68</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="3">
         <v>2018</v>
       </c>
@@ -71508,7 +71508,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="3">
         <v>2018</v>
       </c>
@@ -71528,7 +71528,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="3">
         <v>2018</v>
       </c>
@@ -71548,7 +71548,7 @@
         <v>37.53</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3">
         <v>2018</v>
       </c>
@@ -71568,7 +71568,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="3">
         <v>2018</v>
       </c>
@@ -71588,7 +71588,7 @@
         <v>44.56</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3">
         <v>2018</v>
       </c>
@@ -71608,7 +71608,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="3">
         <v>2018</v>
       </c>
@@ -71628,7 +71628,7 @@
         <v>40.96</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3">
         <v>2018</v>
       </c>
@@ -71648,7 +71648,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="3">
         <v>2018</v>
       </c>
@@ -71668,7 +71668,7 @@
         <v>62.21</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3">
         <v>2018</v>
       </c>
@@ -71688,7 +71688,7 @@
         <v>44.34</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="3">
         <v>2018</v>
       </c>
@@ -71708,7 +71708,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3">
         <v>2018</v>
       </c>
@@ -71728,7 +71728,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="3">
         <v>2018</v>
       </c>
@@ -71748,7 +71748,7 @@
         <v>40.49</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3">
         <v>2018</v>
       </c>
@@ -71768,7 +71768,7 @@
         <v>38.630000000000003</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="3">
         <v>2018</v>
       </c>
@@ -71788,7 +71788,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3">
         <v>2018</v>
       </c>
@@ -71808,7 +71808,7 @@
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="3">
         <v>2018</v>
       </c>
@@ -71828,7 +71828,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3">
         <v>2018</v>
       </c>
@@ -71848,7 +71848,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="3">
         <v>2018</v>
       </c>
@@ -71868,7 +71868,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3">
         <v>2018</v>
       </c>
@@ -71888,7 +71888,7 @@
         <v>33.42</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="3">
         <v>2018</v>
       </c>
@@ -71908,7 +71908,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3">
         <v>2018</v>
       </c>
@@ -71928,7 +71928,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="3">
         <v>2018</v>
       </c>
@@ -71948,7 +71948,7 @@
         <v>50.88</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3">
         <v>2019</v>
       </c>
@@ -71968,7 +71968,7 @@
         <v>45.64</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="3">
         <v>2019</v>
       </c>
@@ -71988,7 +71988,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3">
         <v>2019</v>
       </c>
@@ -72008,7 +72008,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="3">
         <v>2019</v>
       </c>
@@ -72028,7 +72028,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3">
         <v>2019</v>
       </c>
@@ -72048,7 +72048,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="3">
         <v>2019</v>
       </c>
@@ -72068,7 +72068,7 @@
         <v>43.64</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3">
         <v>2019</v>
       </c>
@@ -72088,7 +72088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="3">
         <v>2019</v>
       </c>
@@ -72108,7 +72108,7 @@
         <v>44.91</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3">
         <v>2019</v>
       </c>
@@ -72128,7 +72128,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="3">
         <v>2019</v>
       </c>
@@ -72148,7 +72148,7 @@
         <v>45.06</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3">
         <v>2019</v>
       </c>
@@ -72168,7 +72168,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="3">
         <v>2019</v>
       </c>
@@ -72188,7 +72188,7 @@
         <v>36.340000000000003</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3">
         <v>2019</v>
       </c>
@@ -72208,7 +72208,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="3">
         <v>2019</v>
       </c>
@@ -72228,7 +72228,7 @@
         <v>54.08</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3">
         <v>2019</v>
       </c>
@@ -72248,7 +72248,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="3">
         <v>2019</v>
       </c>
@@ -72268,7 +72268,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3">
         <v>2019</v>
       </c>
@@ -72288,7 +72288,7 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="3">
         <v>2019</v>
       </c>
@@ -72308,7 +72308,7 @@
         <v>49.71</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3">
         <v>2019</v>
       </c>
@@ -72328,7 +72328,7 @@
         <v>32.619999999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="3">
         <v>2019</v>
       </c>
@@ -72348,7 +72348,7 @@
         <v>37.82</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3">
         <v>2019</v>
       </c>
@@ -72368,7 +72368,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="3">
         <v>2019</v>
       </c>
@@ -72388,7 +72388,7 @@
         <v>46.14</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3">
         <v>2019</v>
       </c>
@@ -72408,7 +72408,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="3">
         <v>2019</v>
       </c>
@@ -72428,7 +72428,7 @@
         <v>42.86</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3">
         <v>2019</v>
       </c>
@@ -72448,7 +72448,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="3">
         <v>2019</v>
       </c>
@@ -72468,7 +72468,7 @@
         <v>69.67</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3">
         <v>2019</v>
       </c>
@@ -72488,7 +72488,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="3">
         <v>2019</v>
       </c>
@@ -72508,7 +72508,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3">
         <v>2019</v>
       </c>
@@ -72528,7 +72528,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="3">
         <v>2019</v>
       </c>
@@ -72548,7 +72548,7 @@
         <v>42.96</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3">
         <v>2019</v>
       </c>
@@ -72568,7 +72568,7 @@
         <v>40.590000000000003</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="3">
         <v>2019</v>
       </c>
@@ -72588,7 +72588,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3">
         <v>2019</v>
       </c>
@@ -72608,7 +72608,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="3">
         <v>2019</v>
       </c>
@@ -72628,7 +72628,7 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3">
         <v>2019</v>
       </c>
@@ -72648,7 +72648,7 @@
         <v>32.81</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="3">
         <v>2019</v>
       </c>
@@ -72668,7 +72668,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3">
         <v>2019</v>
       </c>
@@ -72688,7 +72688,7 @@
         <v>36.659999999999997</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="3">
         <v>2019</v>
       </c>
@@ -72708,7 +72708,7 @@
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3">
         <v>2019</v>
       </c>
@@ -72728,7 +72728,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="3">
         <v>2019</v>
       </c>
@@ -72748,7 +72748,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3">
         <v>2020</v>
       </c>
@@ -72768,7 +72768,7 @@
         <v>50.39</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="3">
         <v>2020</v>
       </c>
@@ -72788,7 +72788,7 @@
         <v>62.32</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3">
         <v>2020</v>
       </c>
@@ -72808,7 +72808,7 @@
         <v>24.29</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="3">
         <v>2020</v>
       </c>
@@ -72828,7 +72828,7 @@
         <v>47.91</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3">
         <v>2020</v>
       </c>
@@ -72848,7 +72848,7 @@
         <v>42.59</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="3">
         <v>2020</v>
       </c>
@@ -72868,7 +72868,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3">
         <v>2020</v>
       </c>
@@ -72888,7 +72888,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="3">
         <v>2020</v>
       </c>
@@ -72908,7 +72908,7 @@
         <v>42.51</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3">
         <v>2020</v>
       </c>
@@ -72928,7 +72928,7 @@
         <v>52.51</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="3">
         <v>2020</v>
       </c>
@@ -72948,7 +72948,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3">
         <v>2020</v>
       </c>
@@ -72968,7 +72968,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="3">
         <v>2020</v>
       </c>
@@ -72988,7 +72988,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3">
         <v>2020</v>
       </c>
@@ -73008,7 +73008,7 @@
         <v>37.36</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="3">
         <v>2020</v>
       </c>
@@ -73028,7 +73028,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3">
         <v>2020</v>
       </c>
@@ -73048,7 +73048,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="3">
         <v>2020</v>
       </c>
@@ -73068,7 +73068,7 @@
         <v>80.77</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3">
         <v>2020</v>
       </c>
@@ -73088,7 +73088,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="3">
         <v>2020</v>
       </c>
@@ -73108,7 +73108,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3">
         <v>2020</v>
       </c>
@@ -73128,7 +73128,7 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="3">
         <v>2020</v>
       </c>
@@ -73148,7 +73148,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3">
         <v>2020</v>
       </c>
@@ -73168,7 +73168,7 @@
         <v>37.840000000000003</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="3">
         <v>2020</v>
       </c>
@@ -73188,7 +73188,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3">
         <v>2020</v>
       </c>
@@ -73208,7 +73208,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="3">
         <v>2020</v>
       </c>
@@ -73228,7 +73228,7 @@
         <v>48.48</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3">
         <v>2020</v>
       </c>
@@ -73248,7 +73248,7 @@
         <v>50.84</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="3">
         <v>2020</v>
       </c>
@@ -73268,7 +73268,7 @@
         <v>71.650000000000006</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="3">
         <v>2020</v>
       </c>
@@ -73288,7 +73288,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="3">
         <v>2020</v>
       </c>
@@ -73308,7 +73308,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="3">
         <v>2020</v>
       </c>
@@ -73328,7 +73328,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="3">
         <v>2020</v>
       </c>
@@ -73348,7 +73348,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="3">
         <v>2020</v>
       </c>
@@ -73368,7 +73368,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="3">
         <v>2020</v>
       </c>
@@ -73388,7 +73388,7 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="3">
         <v>2020</v>
       </c>
@@ -73408,7 +73408,7 @@
         <v>42.53</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="3">
         <v>2020</v>
       </c>
@@ -73428,7 +73428,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="3">
         <v>2020</v>
       </c>
@@ -73448,7 +73448,7 @@
         <v>37.04</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="3">
         <v>2020</v>
       </c>
@@ -73468,7 +73468,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="3">
         <v>2020</v>
       </c>
@@ -73488,7 +73488,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="3">
         <v>2020</v>
       </c>
@@ -73508,7 +73508,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="3">
         <v>2020</v>
       </c>
@@ -73528,7 +73528,7 @@
         <v>51.57</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="3">
         <v>2020</v>
       </c>
@@ -73548,7 +73548,7 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="3">
         <v>2021</v>
       </c>
@@ -73568,7 +73568,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="3">
         <v>2021</v>
       </c>
@@ -73588,7 +73588,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="3">
         <v>2021</v>
       </c>
@@ -73608,7 +73608,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="3">
         <v>2021</v>
       </c>
@@ -73628,7 +73628,7 @@
         <v>53.88</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="3">
         <v>2021</v>
       </c>
@@ -73648,7 +73648,7 @@
         <v>45.02</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="3">
         <v>2021</v>
       </c>
@@ -73668,7 +73668,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="3">
         <v>2021</v>
       </c>
@@ -73688,7 +73688,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="3">
         <v>2021</v>
       </c>
@@ -73708,7 +73708,7 @@
         <v>43.03</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="3">
         <v>2021</v>
       </c>
@@ -73728,7 +73728,7 @@
         <v>55.92</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="3">
         <v>2021</v>
       </c>
@@ -73748,7 +73748,7 @@
         <v>56.63</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="3">
         <v>2021</v>
       </c>
@@ -73768,7 +73768,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="3">
         <v>2021</v>
       </c>
@@ -73788,7 +73788,7 @@
         <v>47.23</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="3">
         <v>2021</v>
       </c>
@@ -73808,7 +73808,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="3">
         <v>2021</v>
       </c>
@@ -73828,7 +73828,7 @@
         <v>57.91</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="3">
         <v>2021</v>
       </c>
@@ -73848,7 +73848,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="3">
         <v>2021</v>
       </c>
@@ -73868,7 +73868,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="3">
         <v>2021</v>
       </c>
@@ -73888,7 +73888,7 @@
         <v>45.91</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="3">
         <v>2021</v>
       </c>
@@ -73908,7 +73908,7 @@
         <v>56.68</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="3">
         <v>2021</v>
       </c>
@@ -73928,7 +73928,7 @@
         <v>48.08</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="3">
         <v>2021</v>
       </c>
@@ -73948,7 +73948,7 @@
         <v>48.73</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="3">
         <v>2021</v>
       </c>
@@ -73968,7 +73968,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="3">
         <v>2021</v>
       </c>
@@ -73988,7 +73988,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="3">
         <v>2021</v>
       </c>
@@ -74008,7 +74008,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="3">
         <v>2021</v>
       </c>
@@ -74028,7 +74028,7 @@
         <v>51.11</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="3">
         <v>2021</v>
       </c>
@@ -74048,7 +74048,7 @@
         <v>57.99</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="3">
         <v>2021</v>
       </c>
@@ -74068,7 +74068,7 @@
         <v>68.55</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="3">
         <v>2021</v>
       </c>
@@ -74088,7 +74088,7 @@
         <v>53.91</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="3">
         <v>2021</v>
       </c>
@@ -74108,7 +74108,7 @@
         <v>72.41</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="3">
         <v>2021</v>
       </c>
@@ -74128,7 +74128,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="3">
         <v>2021</v>
       </c>
@@ -74148,7 +74148,7 @@
         <v>47.37</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="3">
         <v>2021</v>
       </c>
@@ -74168,7 +74168,7 @@
         <v>43.18</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="3">
         <v>2021</v>
       </c>
@@ -74188,7 +74188,7 @@
         <v>42.35</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="3">
         <v>2021</v>
       </c>
@@ -74208,7 +74208,7 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="3">
         <v>2021</v>
       </c>
@@ -74228,7 +74228,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="3">
         <v>2021</v>
       </c>
@@ -74248,7 +74248,7 @@
         <v>39.29</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="3">
         <v>2021</v>
       </c>
@@ -74268,7 +74268,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="3">
         <v>2021</v>
       </c>
@@ -74288,7 +74288,7 @@
         <v>40.53</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="3">
         <v>2021</v>
       </c>
@@ -74308,7 +74308,7 @@
         <v>45.59</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="3">
         <v>2021</v>
       </c>
@@ -74328,7 +74328,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="3">
         <v>2021</v>
       </c>
@@ -74348,7 +74348,7 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="3">
         <v>2022</v>
       </c>
@@ -74368,7 +74368,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="3">
         <v>2022</v>
       </c>
@@ -74388,7 +74388,7 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="3">
         <v>2022</v>
       </c>
@@ -74408,7 +74408,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="3">
         <v>2022</v>
       </c>
@@ -74428,7 +74428,7 @@
         <v>54.09</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="3">
         <v>2022</v>
       </c>
@@ -74448,7 +74448,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="3">
         <v>2022</v>
       </c>
@@ -74468,7 +74468,7 @@
         <v>52.83</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="3">
         <v>2022</v>
       </c>
@@ -74488,7 +74488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="3">
         <v>2022</v>
       </c>
@@ -74508,7 +74508,7 @@
         <v>55.51</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="3">
         <v>2022</v>
       </c>
@@ -74528,7 +74528,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="3">
         <v>2022</v>
       </c>
@@ -74548,7 +74548,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="3">
         <v>2022</v>
       </c>
@@ -74568,7 +74568,7 @@
         <v>45.87</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="3">
         <v>2022</v>
       </c>
@@ -74588,7 +74588,7 @@
         <v>50.81</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="3">
         <v>2022</v>
       </c>
@@ -74608,7 +74608,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="3">
         <v>2022</v>
       </c>
@@ -74628,7 +74628,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="3">
         <v>2022</v>
       </c>
@@ -74648,7 +74648,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="3">
         <v>2022</v>
       </c>
@@ -74668,7 +74668,7 @@
         <v>89.47</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="3">
         <v>2022</v>
       </c>
@@ -74688,7 +74688,7 @@
         <v>51.23</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="3">
         <v>2022</v>
       </c>
@@ -74708,7 +74708,7 @@
         <v>60.63</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="3">
         <v>2022</v>
       </c>
@@ -74728,7 +74728,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="3">
         <v>2022</v>
       </c>
@@ -74748,7 +74748,7 @@
         <v>46.49</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="3">
         <v>2022</v>
       </c>
@@ -74768,7 +74768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="3">
         <v>2022</v>
       </c>
@@ -74788,7 +74788,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="3">
         <v>2022</v>
       </c>
@@ -74808,7 +74808,7 @@
         <v>58.86</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="3">
         <v>2022</v>
       </c>
@@ -74828,7 +74828,7 @@
         <v>53.52</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="3">
         <v>2022</v>
       </c>
@@ -74848,7 +74848,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="3">
         <v>2022</v>
       </c>
@@ -74868,7 +74868,7 @@
         <v>76.38</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="3">
         <v>2022</v>
       </c>
@@ -74888,7 +74888,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="3">
         <v>2022</v>
       </c>
@@ -74908,7 +74908,7 @@
         <v>81.47</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="3">
         <v>2022</v>
       </c>
@@ -74928,7 +74928,7 @@
         <v>38.67</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="3">
         <v>2022</v>
       </c>
@@ -74948,7 +74948,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="3">
         <v>2022</v>
       </c>
@@ -74968,7 +74968,7 @@
         <v>45.22</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="3">
         <v>2022</v>
       </c>
@@ -74988,7 +74988,7 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="3">
         <v>2022</v>
       </c>
@@ -75008,7 +75008,7 @@
         <v>47.42</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="3">
         <v>2022</v>
       </c>
@@ -75028,7 +75028,7 @@
         <v>34.94</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="3">
         <v>2022</v>
       </c>
@@ -75048,7 +75048,7 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="3">
         <v>2022</v>
       </c>
@@ -75068,7 +75068,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="3">
         <v>2022</v>
       </c>
@@ -75088,7 +75088,7 @@
         <v>43.57</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="3">
         <v>2022</v>
       </c>
@@ -75108,7 +75108,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="3">
         <v>2022</v>
       </c>
@@ -75128,7 +75128,7 @@
         <v>59.94</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="3">
         <v>2022</v>
       </c>
@@ -75148,7 +75148,7 @@
         <v>63.05</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="3">
         <v>2023</v>
       </c>
@@ -75168,7 +75168,7 @@
         <v>57.49</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="3">
         <v>2023</v>
       </c>
@@ -75188,7 +75188,7 @@
         <v>70.790000000000006</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="3">
         <v>2023</v>
       </c>
@@ -75208,7 +75208,7 @@
         <v>36.53</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="3">
         <v>2023</v>
       </c>
@@ -75228,7 +75228,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="3">
         <v>2023</v>
       </c>
@@ -75248,7 +75248,7 @@
         <v>58.96</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="3">
         <v>2023</v>
       </c>
@@ -75268,7 +75268,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="3">
         <v>2023</v>
       </c>
@@ -75288,7 +75288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="3">
         <v>2023</v>
       </c>
@@ -75308,7 +75308,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="3">
         <v>2023</v>
       </c>
@@ -75328,7 +75328,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="3">
         <v>2023</v>
       </c>
@@ -75348,7 +75348,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="3">
         <v>2023</v>
       </c>
@@ -75368,7 +75368,7 @@
         <v>43.88</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="3">
         <v>2023</v>
       </c>
@@ -75388,7 +75388,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="3">
         <v>2023</v>
       </c>
@@ -75408,7 +75408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="3">
         <v>2023</v>
       </c>
@@ -75428,7 +75428,7 @@
         <v>64.36</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="3">
         <v>2023</v>
       </c>
@@ -75448,7 +75448,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="3">
         <v>2023</v>
       </c>
@@ -75468,7 +75468,7 @@
         <v>91.41</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="3">
         <v>2023</v>
       </c>
@@ -75488,7 +75488,7 @@
         <v>53.44</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="3">
         <v>2023</v>
       </c>
@@ -75508,7 +75508,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="3">
         <v>2023</v>
       </c>
@@ -75528,7 +75528,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="3">
         <v>2023</v>
       </c>
@@ -75548,7 +75548,7 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="3">
         <v>2023</v>
       </c>
@@ -75568,7 +75568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="3">
         <v>2023</v>
       </c>
@@ -75588,7 +75588,7 @@
         <v>53.55</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="3">
         <v>2023</v>
       </c>
@@ -75608,7 +75608,7 @@
         <v>61.16</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="3">
         <v>2023</v>
       </c>
@@ -75628,7 +75628,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="3">
         <v>2023</v>
       </c>
@@ -75648,7 +75648,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="3">
         <v>2023</v>
       </c>
@@ -75668,7 +75668,7 @@
         <v>77.569999999999993</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="3">
         <v>2023</v>
       </c>
@@ -75688,7 +75688,7 @@
         <v>59.06</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="3">
         <v>2023</v>
       </c>
@@ -75708,7 +75708,7 @@
         <v>83.23</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="3">
         <v>2023</v>
       </c>
@@ -75728,7 +75728,7 @@
         <v>40.14</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="3">
         <v>2023</v>
       </c>
@@ -75748,7 +75748,7 @@
         <v>48.71</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="3">
         <v>2023</v>
       </c>
@@ -75768,7 +75768,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="3">
         <v>2023</v>
       </c>
@@ -75788,7 +75788,7 @@
         <v>43.34</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="3">
         <v>2023</v>
       </c>
@@ -75808,7 +75808,7 @@
         <v>48.81</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="3">
         <v>2023</v>
       </c>
@@ -75828,7 +75828,7 @@
         <v>36.64</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="3">
         <v>2023</v>
       </c>
@@ -75848,7 +75848,7 @@
         <v>43.97</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="3">
         <v>2023</v>
       </c>
@@ -75868,7 +75868,7 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="3">
         <v>2023</v>
       </c>
@@ -75888,7 +75888,7 @@
         <v>48.26</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="3">
         <v>2023</v>
       </c>
@@ -75908,7 +75908,7 @@
         <v>47.13</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="3">
         <v>2023</v>
       </c>
@@ -75928,7 +75928,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="3">
         <v>2023</v>
       </c>
@@ -75948,7 +75948,7 @@
         <v>62.91</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="3">
         <v>2024</v>
       </c>
@@ -75968,7 +75968,7 @@
         <v>58.23</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="3">
         <v>2024</v>
       </c>
@@ -75988,7 +75988,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="3">
         <v>2024</v>
       </c>
@@ -76008,7 +76008,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="3">
         <v>2024</v>
       </c>
@@ -76028,7 +76028,7 @@
         <v>56.57</v>
       </c>
     </row>
-    <row r="767" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="3">
         <v>2024</v>
       </c>
@@ -76048,7 +76048,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="3">
         <v>2024</v>
       </c>
@@ -76068,7 +76068,7 @@
         <v>56.07</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="3">
         <v>2024</v>
       </c>
@@ -76088,7 +76088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="3">
         <v>2024</v>
       </c>
@@ -76108,7 +76108,7 @@
         <v>71.94</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="3">
         <v>2024</v>
       </c>
@@ -76128,7 +76128,7 @@
         <v>67.89</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="3">
         <v>2024</v>
       </c>
@@ -76148,7 +76148,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="3">
         <v>2024</v>
       </c>
@@ -76168,7 +76168,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="3">
         <v>2024</v>
       </c>
@@ -76188,7 +76188,7 @@
         <v>62.04</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="3">
         <v>2024</v>
       </c>
@@ -76208,7 +76208,7 @@
         <v>49.63</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="3">
         <v>2024</v>
       </c>
@@ -76228,7 +76228,7 @@
         <v>66.48</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="3">
         <v>2024</v>
       </c>
@@ -76248,7 +76248,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="3">
         <v>2024</v>
       </c>
@@ -76268,7 +76268,7 @@
         <v>91.81</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="3">
         <v>2024</v>
       </c>
@@ -76288,7 +76288,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="3">
         <v>2024</v>
       </c>
@@ -76308,7 +76308,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="3">
         <v>2024</v>
       </c>
@@ -76328,7 +76328,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="3">
         <v>2024</v>
       </c>
@@ -76348,7 +76348,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="3">
         <v>2024</v>
       </c>
@@ -76368,7 +76368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="3">
         <v>2024</v>
       </c>
@@ -76388,7 +76388,7 @@
         <v>55.34</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="3">
         <v>2024</v>
       </c>
@@ -76408,7 +76408,7 @@
         <v>64.03</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="3">
         <v>2024</v>
       </c>
@@ -76428,7 +76428,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="3">
         <v>2024</v>
       </c>
@@ -76448,7 +76448,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="3">
         <v>2024</v>
       </c>
@@ -76468,7 +76468,7 @@
         <v>78.319999999999993</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="3">
         <v>2024</v>
       </c>
@@ -76488,7 +76488,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="3">
         <v>2024</v>
       </c>
@@ -76508,7 +76508,7 @@
         <v>83.98</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="3">
         <v>2024</v>
       </c>
@@ -76528,7 +76528,7 @@
         <v>42.33</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="3">
         <v>2024</v>
       </c>
@@ -76548,7 +76548,7 @@
         <v>50.17</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="3">
         <v>2024</v>
       </c>
@@ -76568,7 +76568,7 @@
         <v>52.35</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="3">
         <v>2024</v>
       </c>
@@ -76588,7 +76588,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="3">
         <v>2024</v>
       </c>
@@ -76608,7 +76608,7 @@
         <v>50.69</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="3">
         <v>2024</v>
       </c>
@@ -76628,7 +76628,7 @@
         <v>38.369999999999997</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="3">
         <v>2024</v>
       </c>
@@ -76648,7 +76648,7 @@
         <v>44.67</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="3">
         <v>2024</v>
       </c>
@@ -76668,7 +76668,7 @@
         <v>42.66</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="3">
         <v>2024</v>
       </c>
@@ -76688,7 +76688,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="3">
         <v>2024</v>
       </c>
@@ -76708,7 +76708,7 @@
         <v>49.06</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="3">
         <v>2024</v>
       </c>
@@ -76728,7 +76728,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="3">
         <v>2024</v>
       </c>
@@ -76748,7 +76748,7 @@
         <v>63.06</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="3">
         <v>2025</v>
       </c>
@@ -76768,7 +76768,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="3">
         <v>2025</v>
       </c>
@@ -76788,7 +76788,7 @@
         <v>74.77</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="3">
         <v>2025</v>
       </c>
@@ -76808,7 +76808,7 @@
         <v>43.58</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="3">
         <v>2025</v>
       </c>
@@ -76828,7 +76828,7 @@
         <v>57.76</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="3">
         <v>2025</v>
       </c>
@@ -76848,7 +76848,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="3">
         <v>2025</v>
       </c>
@@ -76868,7 +76868,7 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="3">
         <v>2025</v>
       </c>
@@ -76888,7 +76888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="3">
         <v>2025</v>
       </c>
@@ -76908,7 +76908,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="3">
         <v>2025</v>
       </c>
@@ -76928,7 +76928,7 @@
         <v>69.77</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="3">
         <v>2025</v>
       </c>
@@ -76948,7 +76948,7 @@
         <v>60.24</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="3">
         <v>2025</v>
       </c>
@@ -76968,7 +76968,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="3">
         <v>2025</v>
       </c>
@@ -76988,7 +76988,7 @@
         <v>65.83</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="3">
         <v>2025</v>
       </c>
@@ -77008,7 +77008,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="3">
         <v>2025</v>
       </c>
@@ -77028,7 +77028,7 @@
         <v>68.12</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="3">
         <v>2025</v>
       </c>
@@ -77048,7 +77048,7 @@
         <v>57.48</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="3">
         <v>2025</v>
       </c>
@@ -77068,7 +77068,7 @@
         <v>92.14</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="3">
         <v>2025</v>
       </c>
@@ -77088,7 +77088,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="3">
         <v>2025</v>
       </c>
@@ -77108,7 +77108,7 @@
         <v>66.53</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="3">
         <v>2025</v>
       </c>
@@ -77128,7 +77128,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="3">
         <v>2025</v>
       </c>
@@ -77148,7 +77148,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="3">
         <v>2025</v>
       </c>
@@ -77168,7 +77168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="3">
         <v>2025</v>
       </c>
@@ -77188,7 +77188,7 @@
         <v>55.07</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="3">
         <v>2025</v>
       </c>
@@ -77208,7 +77208,7 @@
         <v>66.760000000000005</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="3">
         <v>2025</v>
       </c>
@@ -77228,7 +77228,7 @@
         <v>57.54</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="3">
         <v>2025</v>
       </c>
@@ -77248,7 +77248,7 @@
         <v>69.47</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="3">
         <v>2025</v>
       </c>
@@ -77268,7 +77268,7 @@
         <v>79.47</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="3">
         <v>2025</v>
       </c>
@@ -77288,7 +77288,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="3">
         <v>2025</v>
       </c>
@@ -77308,7 +77308,7 @@
         <v>83.94</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="3">
         <v>2025</v>
       </c>
@@ -77328,7 +77328,7 @@
         <v>45.37</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="3">
         <v>2025</v>
       </c>
@@ -77348,7 +77348,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="3">
         <v>2025</v>
       </c>
@@ -77368,7 +77368,7 @@
         <v>54.73</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="3">
         <v>2025</v>
       </c>
@@ -77388,7 +77388,7 @@
         <v>50.03</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="3">
         <v>2025</v>
       </c>
@@ -77408,7 +77408,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="3">
         <v>2025</v>
       </c>
@@ -77428,7 +77428,7 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="3">
         <v>2025</v>
       </c>
@@ -77448,7 +77448,7 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="3">
         <v>2025</v>
       </c>
@@ -77468,7 +77468,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="3">
         <v>2025</v>
       </c>
@@ -77488,7 +77488,7 @@
         <v>53.41</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="3">
         <v>2025</v>
       </c>
@@ -77508,7 +77508,7 @@
         <v>51.57</v>
       </c>
     </row>
-    <row r="841" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="3">
         <v>2025</v>
       </c>
@@ -77528,7 +77528,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="3">
         <v>2025</v>
       </c>
@@ -77548,7 +77548,7 @@
         <v>63.12</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="3">
         <v>2026</v>
       </c>
@@ -77568,7 +77568,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="3">
         <v>2026</v>
       </c>
@@ -77588,7 +77588,7 @@
         <v>77.36</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="3">
         <v>2026</v>
       </c>
@@ -77608,7 +77608,7 @@
         <v>46.44</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="3">
         <v>2026</v>
       </c>
@@ -77628,7 +77628,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="3">
         <v>2026</v>
       </c>
@@ -77648,7 +77648,7 @@
         <v>70.75</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="3">
         <v>2026</v>
       </c>
@@ -77668,7 +77668,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="3">
         <v>2026</v>
       </c>
@@ -77688,7 +77688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="3">
         <v>2026</v>
       </c>
@@ -77708,7 +77708,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="3">
         <v>2026</v>
       </c>
@@ -77728,7 +77728,7 @@
         <v>71.59</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="3">
         <v>2026</v>
       </c>
@@ -77748,7 +77748,7 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="3">
         <v>2026</v>
       </c>
@@ -77768,7 +77768,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="3">
         <v>2026</v>
       </c>
@@ -77788,7 +77788,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="3">
         <v>2026</v>
       </c>
@@ -77808,7 +77808,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="3">
         <v>2026</v>
       </c>
@@ -77828,7 +77828,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="3">
         <v>2026</v>
       </c>
@@ -77848,7 +77848,7 @@
         <v>59.18</v>
       </c>
     </row>
-    <row r="858" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="3">
         <v>2026</v>
       </c>
@@ -77868,7 +77868,7 @@
         <v>92.61</v>
       </c>
     </row>
-    <row r="859" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="3">
         <v>2026</v>
       </c>
@@ -77888,7 +77888,7 @@
         <v>58.61</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="3">
         <v>2026</v>
       </c>
@@ -77908,7 +77908,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="3">
         <v>2026</v>
       </c>
@@ -77928,7 +77928,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="3">
         <v>2026</v>
       </c>
@@ -77948,7 +77948,7 @@
         <v>56.61</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="3">
         <v>2026</v>
       </c>
@@ -77968,7 +77968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="3">
         <v>2026</v>
       </c>
@@ -77988,7 +77988,7 @@
         <v>55.47</v>
       </c>
     </row>
-    <row r="865" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="3">
         <v>2026</v>
       </c>
@@ -78008,7 +78008,7 @@
         <v>69.459999999999994</v>
       </c>
     </row>
-    <row r="866" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="3">
         <v>2026</v>
       </c>
@@ -78028,7 +78028,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="3">
         <v>2026</v>
       </c>
@@ -78048,7 +78048,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="868" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="3">
         <v>2026</v>
       </c>
@@ -78068,7 +78068,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="3">
         <v>2026</v>
       </c>
@@ -78088,7 +78088,7 @@
         <v>63.67</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="3">
         <v>2026</v>
       </c>
@@ -78108,7 +78108,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="3">
         <v>2026</v>
       </c>
@@ -78128,7 +78128,7 @@
         <v>47.14</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="3">
         <v>2026</v>
       </c>
@@ -78148,7 +78148,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="873" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="3">
         <v>2026</v>
       </c>
@@ -78168,7 +78168,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="3">
         <v>2026</v>
       </c>
@@ -78188,7 +78188,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="3">
         <v>2026</v>
       </c>
@@ -78208,7 +78208,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="3">
         <v>2026</v>
       </c>
@@ -78228,7 +78228,7 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="3">
         <v>2026</v>
       </c>
@@ -78248,7 +78248,7 @@
         <v>47.71</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="3">
         <v>2026</v>
       </c>
@@ -78268,7 +78268,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="3">
         <v>2026</v>
       </c>
@@ -78288,7 +78288,7 @@
         <v>56.16</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="3">
         <v>2026</v>
       </c>
@@ -78308,7 +78308,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="3">
         <v>2026</v>
       </c>
@@ -78328,7 +78328,7 @@
         <v>62.52</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="3">
         <v>2026</v>
       </c>
@@ -78348,7 +78348,7 @@
         <v>63.74</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="3">
         <v>2027</v>
       </c>
@@ -78368,7 +78368,7 @@
         <v>59.64</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="3">
         <v>2027</v>
       </c>
@@ -78388,7 +78388,7 @@
         <v>79.27</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="3">
         <v>2027</v>
       </c>
@@ -78408,7 +78408,7 @@
         <v>48.69</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="3">
         <v>2027</v>
       </c>
@@ -78428,7 +78428,7 @@
         <v>60.59</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="3">
         <v>2027</v>
       </c>
@@ -78448,7 +78448,7 @@
         <v>74.03</v>
       </c>
     </row>
-    <row r="888" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="3">
         <v>2027</v>
       </c>
@@ -78468,7 +78468,7 @@
         <v>60.15</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="3">
         <v>2027</v>
       </c>
@@ -78488,7 +78488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="3">
         <v>2027</v>
       </c>
@@ -78508,7 +78508,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="891" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="3">
         <v>2027</v>
       </c>
@@ -78528,7 +78528,7 @@
         <v>72.88</v>
       </c>
     </row>
-    <row r="892" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="3">
         <v>2027</v>
       </c>
@@ -78548,7 +78548,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="3">
         <v>2027</v>
       </c>
@@ -78568,7 +78568,7 @@
         <v>56.14</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="3">
         <v>2027</v>
       </c>
@@ -78588,7 +78588,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="3">
         <v>2027</v>
       </c>
@@ -78608,7 +78608,7 @@
         <v>56.42</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="3">
         <v>2027</v>
       </c>
@@ -78628,7 +78628,7 @@
         <v>70.67</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="3">
         <v>2027</v>
       </c>
@@ -78648,7 +78648,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="3">
         <v>2027</v>
       </c>
@@ -78668,7 +78668,7 @@
         <v>92.87</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="3">
         <v>2027</v>
       </c>
@@ -78688,7 +78688,7 @@
         <v>60.23</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="3">
         <v>2027</v>
       </c>
@@ -78708,7 +78708,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="3">
         <v>2027</v>
       </c>
@@ -78728,7 +78728,7 @@
         <v>61.13</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="3">
         <v>2027</v>
       </c>
@@ -78748,7 +78748,7 @@
         <v>57.75</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="3">
         <v>2027</v>
       </c>
@@ -78768,7 +78768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="3">
         <v>2027</v>
       </c>
@@ -78788,7 +78788,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="3">
         <v>2027</v>
       </c>
@@ -78808,7 +78808,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="906" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="3">
         <v>2027</v>
       </c>
@@ -78828,7 +78828,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="907" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="3">
         <v>2027</v>
       </c>
@@ -78848,7 +78848,7 @@
         <v>70.41</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="3">
         <v>2027</v>
       </c>
@@ -78868,7 +78868,7 @@
         <v>81.319999999999993</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="3">
         <v>2027</v>
       </c>
@@ -78888,7 +78888,7 @@
         <v>65.38</v>
       </c>
     </row>
-    <row r="910" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="3">
         <v>2027</v>
       </c>
@@ -78908,7 +78908,7 @@
         <v>84.07</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="3">
         <v>2027</v>
       </c>
@@ -78928,7 +78928,7 @@
         <v>48.32</v>
       </c>
     </row>
-    <row r="912" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="3">
         <v>2027</v>
       </c>
@@ -78948,7 +78948,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="913" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="3">
         <v>2027</v>
       </c>
@@ -78968,7 +78968,7 @@
         <v>58.53</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="3">
         <v>2027</v>
       </c>
@@ -78988,7 +78988,7 @@
         <v>54.44</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="3">
         <v>2027</v>
       </c>
@@ -79008,7 +79008,7 @@
         <v>54.91</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="3">
         <v>2027</v>
       </c>
@@ -79028,7 +79028,7 @@
         <v>45.85</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="3">
         <v>2027</v>
       </c>
@@ -79048,7 +79048,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="3">
         <v>2027</v>
       </c>
@@ -79068,7 +79068,7 @@
         <v>48.97</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="3">
         <v>2027</v>
       </c>
@@ -79088,7 +79088,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="3">
         <v>2027</v>
       </c>
@@ -79108,7 +79108,7 @@
         <v>54.97</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="3">
         <v>2027</v>
       </c>
@@ -79128,7 +79128,7 @@
         <v>63.41</v>
       </c>
     </row>
-    <row r="922" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="3">
         <v>2027</v>
       </c>
@@ -79149,7 +79149,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A922" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:A922" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2,008"/>
+        <filter val="2,009"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
